--- a/Propeller Packages/APC_11x7/ClvsAlpha_RPM6000.xlsx
+++ b/Propeller Packages/APC_11x7/ClvsAlpha_RPM6000.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10720"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olddominion-my.sharepoint.com/personal/ekonu001_odu_edu/Documents/PhD ODU/Post PhD - New Work/BEMT + Free-Wake/Propeller Packages/APC_11x7/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://olddominion-my.sharepoint.com/personal/ekonu001_odu_edu/Documents/PhD ODU/Post PhD - New Work/BEMT + Free-Wake/VortexBlade Exc/Propeller Packages/APC_11x7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="11_714D3A7F0956528D71862745F3012D16618A0A8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1548288-798C-4A49-9669-20129096DB43}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="11_714D3A7F0956528D71862745F3012D16618A0A8E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CCF709BF-192E-7742-805E-1C0795122296}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="16780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
   <si>
     <t>Alpha</t>
   </si>
@@ -493,52 +493,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AJ51"/>
+  <dimension ref="A1:AN51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ9" sqref="AJ9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" customWidth="1"/>
-    <col min="3" max="3" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="7.44140625" customWidth="1"/>
-    <col min="5" max="5" width="3.88671875" customWidth="1"/>
-    <col min="6" max="6" width="7.44140625" customWidth="1"/>
-    <col min="7" max="7" width="3.88671875" customWidth="1"/>
-    <col min="8" max="8" width="7.44140625" customWidth="1"/>
-    <col min="9" max="9" width="3.88671875" customWidth="1"/>
-    <col min="10" max="10" width="7.44140625" customWidth="1"/>
-    <col min="11" max="11" width="3.88671875" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" customWidth="1"/>
-    <col min="13" max="13" width="3.88671875" customWidth="1"/>
-    <col min="14" max="14" width="7.44140625" customWidth="1"/>
-    <col min="15" max="15" width="3.88671875" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" customWidth="1"/>
-    <col min="17" max="17" width="3.88671875" customWidth="1"/>
-    <col min="18" max="18" width="7.44140625" customWidth="1"/>
-    <col min="19" max="19" width="3.88671875" customWidth="1"/>
-    <col min="20" max="20" width="7.44140625" customWidth="1"/>
-    <col min="21" max="21" width="3.88671875" customWidth="1"/>
-    <col min="22" max="22" width="7.44140625" customWidth="1"/>
-    <col min="23" max="23" width="3.88671875" customWidth="1"/>
-    <col min="24" max="24" width="7.44140625" customWidth="1"/>
-    <col min="25" max="25" width="3.88671875" customWidth="1"/>
-    <col min="26" max="26" width="7.44140625" customWidth="1"/>
-    <col min="27" max="27" width="3.88671875" customWidth="1"/>
-    <col min="28" max="28" width="7.44140625" customWidth="1"/>
-    <col min="29" max="29" width="3.88671875" customWidth="1"/>
-    <col min="30" max="30" width="7.44140625" customWidth="1"/>
-    <col min="31" max="31" width="3.88671875" customWidth="1"/>
-    <col min="32" max="32" width="7.44140625" customWidth="1"/>
-    <col min="33" max="33" width="3.88671875" customWidth="1"/>
-    <col min="34" max="34" width="7.44140625" customWidth="1"/>
-    <col min="35" max="35" width="5.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="2" max="2" width="7.5" customWidth="1"/>
+    <col min="3" max="3" width="3.83203125" customWidth="1"/>
+    <col min="4" max="4" width="7.5" customWidth="1"/>
+    <col min="5" max="5" width="3.83203125" customWidth="1"/>
+    <col min="6" max="6" width="7.5" customWidth="1"/>
+    <col min="7" max="7" width="3.83203125" customWidth="1"/>
+    <col min="8" max="8" width="7.5" customWidth="1"/>
+    <col min="9" max="9" width="3.83203125" customWidth="1"/>
+    <col min="10" max="10" width="7.5" customWidth="1"/>
+    <col min="11" max="11" width="3.83203125" customWidth="1"/>
+    <col min="12" max="12" width="7.5" customWidth="1"/>
+    <col min="13" max="13" width="3.83203125" customWidth="1"/>
+    <col min="14" max="14" width="7.5" customWidth="1"/>
+    <col min="15" max="15" width="3.83203125" customWidth="1"/>
+    <col min="16" max="16" width="7.5" customWidth="1"/>
+    <col min="17" max="17" width="3.83203125" customWidth="1"/>
+    <col min="18" max="18" width="7.5" customWidth="1"/>
+    <col min="19" max="19" width="3.83203125" customWidth="1"/>
+    <col min="20" max="20" width="7.5" customWidth="1"/>
+    <col min="21" max="21" width="3.83203125" customWidth="1"/>
+    <col min="22" max="22" width="7.5" customWidth="1"/>
+    <col min="23" max="23" width="3.83203125" customWidth="1"/>
+    <col min="24" max="24" width="7.5" customWidth="1"/>
+    <col min="25" max="25" width="3.83203125" customWidth="1"/>
+    <col min="26" max="26" width="7.5" customWidth="1"/>
+    <col min="27" max="27" width="3.83203125" customWidth="1"/>
+    <col min="28" max="28" width="7.5" customWidth="1"/>
+    <col min="29" max="29" width="3.83203125" customWidth="1"/>
+    <col min="30" max="30" width="7.5" customWidth="1"/>
+    <col min="31" max="31" width="3.83203125" customWidth="1"/>
+    <col min="32" max="32" width="7.5" customWidth="1"/>
+    <col min="33" max="33" width="3.83203125" customWidth="1"/>
+    <col min="34" max="34" width="7.5" customWidth="1"/>
+    <col min="35" max="35" width="5.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -546,109 +546,121 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="N1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="O1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="P1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="Q1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s">
+      <c r="R1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" t="s">
+      <c r="S1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" t="s">
+      <c r="T1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="U1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" t="s">
+      <c r="V1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" t="s">
+      <c r="W1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" t="s">
+      <c r="X1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" t="s">
+      <c r="Y1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Z1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AA1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AB1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="AC1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AD1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AE1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AF1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AG1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AH1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AI1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AJ1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AK1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AL1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" t="s">
+      <c r="AM1" t="s">
         <v>0</v>
       </c>
-      <c r="AJ1" t="s">
+      <c r="AN1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>-10</v>
       </c>
@@ -656,109 +668,121 @@
         <v>3.8800000000000001E-2</v>
       </c>
       <c r="C2">
+        <v>-10</v>
+      </c>
+      <c r="D2">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="E2">
+        <v>-10</v>
+      </c>
+      <c r="F2">
+        <v>3.8800000000000001E-2</v>
+      </c>
+      <c r="G2">
         <v>-13</v>
       </c>
-      <c r="D2">
+      <c r="H2">
         <v>8.9200000000000002E-2</v>
-      </c>
-      <c r="E2">
-        <v>-12</v>
-      </c>
-      <c r="F2">
-        <v>8.1500000000000003E-2</v>
-      </c>
-      <c r="G2">
-        <v>-12</v>
-      </c>
-      <c r="H2">
-        <v>5.8299999999999998E-2</v>
       </c>
       <c r="I2">
         <v>-12</v>
       </c>
       <c r="J2">
-        <v>-7.9600000000000004E-2</v>
+        <v>8.1500000000000003E-2</v>
       </c>
       <c r="K2">
         <v>-12</v>
       </c>
       <c r="L2">
-        <v>-0.1404</v>
+        <v>5.8299999999999998E-2</v>
       </c>
       <c r="M2">
         <v>-12</v>
       </c>
       <c r="N2">
-        <v>-0.1721</v>
+        <v>-7.9600000000000004E-2</v>
       </c>
       <c r="O2">
         <v>-12</v>
       </c>
       <c r="P2">
-        <v>-0.2079</v>
+        <v>-0.1404</v>
       </c>
       <c r="Q2">
         <v>-12</v>
       </c>
       <c r="R2">
-        <v>-0.23630000000000001</v>
+        <v>-0.1721</v>
       </c>
       <c r="S2">
         <v>-12</v>
       </c>
       <c r="T2">
-        <v>-0.26769999999999999</v>
+        <v>-0.2079</v>
       </c>
       <c r="U2">
         <v>-12</v>
       </c>
       <c r="V2">
+        <v>-0.23630000000000001</v>
+      </c>
+      <c r="W2">
+        <v>-12</v>
+      </c>
+      <c r="X2">
+        <v>-0.26769999999999999</v>
+      </c>
+      <c r="Y2">
+        <v>-12</v>
+      </c>
+      <c r="Z2">
         <v>-0.2883</v>
-      </c>
-      <c r="W2">
-        <v>-9</v>
-      </c>
-      <c r="X2">
-        <v>-0.27339999999999998</v>
-      </c>
-      <c r="Y2">
-        <v>-9</v>
-      </c>
-      <c r="Z2">
-        <v>-0.31590000000000001</v>
       </c>
       <c r="AA2">
         <v>-9</v>
       </c>
       <c r="AB2">
+        <v>-0.27339999999999998</v>
+      </c>
+      <c r="AC2">
+        <v>-9</v>
+      </c>
+      <c r="AD2">
+        <v>-0.31590000000000001</v>
+      </c>
+      <c r="AE2">
+        <v>-9</v>
+      </c>
+      <c r="AF2">
         <v>-0.32719999999999999</v>
       </c>
-      <c r="AC2">
+      <c r="AG2">
         <v>-11</v>
       </c>
-      <c r="AD2">
+      <c r="AH2">
         <v>-0.32600000000000001</v>
       </c>
-      <c r="AE2">
+      <c r="AI2">
         <v>-10</v>
       </c>
-      <c r="AF2">
+      <c r="AJ2">
         <v>-0.34</v>
       </c>
-      <c r="AG2">
+      <c r="AK2">
         <v>-9</v>
       </c>
-      <c r="AH2">
+      <c r="AL2">
         <v>-0.35420000000000001</v>
       </c>
-      <c r="AI2">
+      <c r="AM2">
         <v>-9</v>
       </c>
-      <c r="AJ2">
+      <c r="AN2">
         <v>-0.35420000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>-9</v>
       </c>
@@ -766,109 +790,121 @@
         <v>2.5100000000000001E-2</v>
       </c>
       <c r="C3">
+        <v>-9</v>
+      </c>
+      <c r="D3">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="E3">
+        <v>-9</v>
+      </c>
+      <c r="F3">
+        <v>2.5100000000000001E-2</v>
+      </c>
+      <c r="G3">
         <v>-12</v>
       </c>
-      <c r="D3">
+      <c r="H3">
         <v>9.8199999999999996E-2</v>
-      </c>
-      <c r="E3">
-        <v>-11</v>
-      </c>
-      <c r="F3">
-        <v>8.8900000000000007E-2</v>
-      </c>
-      <c r="G3">
-        <v>-11</v>
-      </c>
-      <c r="H3">
-        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I3">
         <v>-11</v>
       </c>
       <c r="J3">
-        <v>-5.3800000000000001E-2</v>
+        <v>8.8900000000000007E-2</v>
       </c>
       <c r="K3">
         <v>-11</v>
       </c>
       <c r="L3">
-        <v>-0.11119999999999999</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="M3">
         <v>-11</v>
       </c>
       <c r="N3">
-        <v>-0.14219999999999999</v>
+        <v>-5.3800000000000001E-2</v>
       </c>
       <c r="O3">
         <v>-11</v>
       </c>
       <c r="P3">
-        <v>-0.17549999999999999</v>
+        <v>-0.11119999999999999</v>
       </c>
       <c r="Q3">
         <v>-11</v>
       </c>
       <c r="R3">
-        <v>-0.2077</v>
+        <v>-0.14219999999999999</v>
       </c>
       <c r="S3">
         <v>-11</v>
       </c>
       <c r="T3">
-        <v>-0.23799999999999999</v>
+        <v>-0.17549999999999999</v>
       </c>
       <c r="U3">
         <v>-11</v>
       </c>
       <c r="V3">
+        <v>-0.2077</v>
+      </c>
+      <c r="W3">
+        <v>-11</v>
+      </c>
+      <c r="X3">
+        <v>-0.23799999999999999</v>
+      </c>
+      <c r="Y3">
+        <v>-11</v>
+      </c>
+      <c r="Z3">
         <v>-0.26779999999999998</v>
-      </c>
-      <c r="W3">
-        <v>-8</v>
-      </c>
-      <c r="X3">
-        <v>-0.35770000000000002</v>
-      </c>
-      <c r="Y3">
-        <v>-8</v>
-      </c>
-      <c r="Z3">
-        <v>-0.36380000000000001</v>
       </c>
       <c r="AA3">
         <v>-8</v>
       </c>
       <c r="AB3">
+        <v>-0.35770000000000002</v>
+      </c>
+      <c r="AC3">
+        <v>-8</v>
+      </c>
+      <c r="AD3">
+        <v>-0.36380000000000001</v>
+      </c>
+      <c r="AE3">
+        <v>-8</v>
+      </c>
+      <c r="AF3">
         <v>-0.3594</v>
       </c>
-      <c r="AC3">
+      <c r="AG3">
         <v>-10</v>
       </c>
-      <c r="AD3">
+      <c r="AH3">
         <v>-0.33710000000000001</v>
       </c>
-      <c r="AE3">
+      <c r="AI3">
         <v>-9</v>
       </c>
-      <c r="AF3">
+      <c r="AJ3">
         <v>-0.36709999999999998</v>
       </c>
-      <c r="AG3">
+      <c r="AK3">
         <v>-8</v>
       </c>
-      <c r="AH3">
+      <c r="AL3">
         <v>-0.3785</v>
       </c>
-      <c r="AI3">
+      <c r="AM3">
         <v>-8</v>
       </c>
-      <c r="AJ3">
+      <c r="AN3">
         <v>-0.3785</v>
       </c>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>-8</v>
       </c>
@@ -876,109 +912,121 @@
         <v>-2.9899999999999999E-2</v>
       </c>
       <c r="C4">
+        <v>-8</v>
+      </c>
+      <c r="D4">
+        <v>-2.9899999999999999E-2</v>
+      </c>
+      <c r="E4">
+        <v>-8</v>
+      </c>
+      <c r="F4">
+        <v>-2.9899999999999999E-2</v>
+      </c>
+      <c r="G4">
         <v>-11</v>
       </c>
-      <c r="D4">
+      <c r="H4">
         <v>9.8799999999999999E-2</v>
-      </c>
-      <c r="E4">
-        <v>-10</v>
-      </c>
-      <c r="F4">
-        <v>8.0600000000000005E-2</v>
-      </c>
-      <c r="G4">
-        <v>-9</v>
-      </c>
-      <c r="H4">
-        <v>4.58E-2</v>
       </c>
       <c r="I4">
         <v>-10</v>
       </c>
       <c r="J4">
-        <v>-4.2900000000000001E-2</v>
+        <v>8.0600000000000005E-2</v>
       </c>
       <c r="K4">
-        <v>-10</v>
+        <v>-9</v>
       </c>
       <c r="L4">
-        <v>-8.6999999999999994E-2</v>
+        <v>4.58E-2</v>
       </c>
       <c r="M4">
         <v>-10</v>
       </c>
       <c r="N4">
-        <v>-0.13789999999999999</v>
+        <v>-4.2900000000000001E-2</v>
       </c>
       <c r="O4">
         <v>-10</v>
       </c>
       <c r="P4">
-        <v>-0.16520000000000001</v>
+        <v>-8.6999999999999994E-2</v>
       </c>
       <c r="Q4">
         <v>-10</v>
       </c>
       <c r="R4">
-        <v>-0.1983</v>
+        <v>-0.13789999999999999</v>
       </c>
       <c r="S4">
         <v>-10</v>
       </c>
       <c r="T4">
-        <v>-0.22939999999999999</v>
+        <v>-0.16520000000000001</v>
       </c>
       <c r="U4">
         <v>-10</v>
       </c>
       <c r="V4">
+        <v>-0.1983</v>
+      </c>
+      <c r="W4">
+        <v>-10</v>
+      </c>
+      <c r="X4">
+        <v>-0.22939999999999999</v>
+      </c>
+      <c r="Y4">
+        <v>-10</v>
+      </c>
+      <c r="Z4">
         <v>-0.25290000000000001</v>
-      </c>
-      <c r="W4">
-        <v>-7</v>
-      </c>
-      <c r="X4">
-        <v>-0.29880000000000001</v>
-      </c>
-      <c r="Y4">
-        <v>-7</v>
-      </c>
-      <c r="Z4">
-        <v>-0.3175</v>
       </c>
       <c r="AA4">
         <v>-7</v>
       </c>
       <c r="AB4">
+        <v>-0.29880000000000001</v>
+      </c>
+      <c r="AC4">
+        <v>-7</v>
+      </c>
+      <c r="AD4">
+        <v>-0.3175</v>
+      </c>
+      <c r="AE4">
+        <v>-7</v>
+      </c>
+      <c r="AF4">
         <v>-0.33950000000000002</v>
       </c>
-      <c r="AC4">
+      <c r="AG4">
         <v>-9</v>
       </c>
-      <c r="AD4">
+      <c r="AH4">
         <v>-0.36870000000000003</v>
       </c>
-      <c r="AE4">
+      <c r="AI4">
         <v>-8</v>
       </c>
-      <c r="AF4">
+      <c r="AJ4">
         <v>-0.41539999999999999</v>
       </c>
-      <c r="AG4">
+      <c r="AK4">
         <v>-7</v>
       </c>
-      <c r="AH4">
+      <c r="AL4">
         <v>-0.41060000000000002</v>
       </c>
-      <c r="AI4">
+      <c r="AM4">
         <v>-7</v>
       </c>
-      <c r="AJ4">
+      <c r="AN4">
         <v>-0.41060000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>-7</v>
       </c>
@@ -986,109 +1034,121 @@
         <v>-0.1108</v>
       </c>
       <c r="C5">
+        <v>-7</v>
+      </c>
+      <c r="D5">
+        <v>-0.1108</v>
+      </c>
+      <c r="E5">
+        <v>-7</v>
+      </c>
+      <c r="F5">
+        <v>-0.1108</v>
+      </c>
+      <c r="G5">
         <v>-10</v>
       </c>
-      <c r="D5">
+      <c r="H5">
         <v>8.1500000000000003E-2</v>
-      </c>
-      <c r="E5">
-        <v>-9</v>
-      </c>
-      <c r="F5">
-        <v>6.2399999999999997E-2</v>
-      </c>
-      <c r="G5">
-        <v>-8</v>
-      </c>
-      <c r="H5">
-        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="I5">
         <v>-9</v>
       </c>
       <c r="J5">
-        <v>-5.3100000000000001E-2</v>
+        <v>6.2399999999999997E-2</v>
       </c>
       <c r="K5">
-        <v>-9</v>
+        <v>-8</v>
       </c>
       <c r="L5">
-        <v>-0.10879999999999999</v>
+        <v>-1.1999999999999999E-3</v>
       </c>
       <c r="M5">
         <v>-9</v>
       </c>
       <c r="N5">
-        <v>-0.15240000000000001</v>
+        <v>-5.3100000000000001E-2</v>
       </c>
       <c r="O5">
         <v>-9</v>
       </c>
       <c r="P5">
-        <v>-0.2145</v>
+        <v>-0.10879999999999999</v>
       </c>
       <c r="Q5">
         <v>-9</v>
       </c>
       <c r="R5">
-        <v>-0.21</v>
+        <v>-0.15240000000000001</v>
       </c>
       <c r="S5">
         <v>-9</v>
       </c>
       <c r="T5">
-        <v>-0.27250000000000002</v>
+        <v>-0.2145</v>
       </c>
       <c r="U5">
         <v>-9</v>
       </c>
       <c r="V5">
+        <v>-0.21</v>
+      </c>
+      <c r="W5">
+        <v>-9</v>
+      </c>
+      <c r="X5">
+        <v>-0.27250000000000002</v>
+      </c>
+      <c r="Y5">
+        <v>-9</v>
+      </c>
+      <c r="Z5">
         <v>-0.255</v>
-      </c>
-      <c r="W5">
-        <v>-6</v>
-      </c>
-      <c r="X5">
-        <v>-0.2137</v>
-      </c>
-      <c r="Y5">
-        <v>-6</v>
-      </c>
-      <c r="Z5">
-        <v>-0.23150000000000001</v>
       </c>
       <c r="AA5">
         <v>-6</v>
       </c>
       <c r="AB5">
+        <v>-0.2137</v>
+      </c>
+      <c r="AC5">
+        <v>-6</v>
+      </c>
+      <c r="AD5">
+        <v>-0.23150000000000001</v>
+      </c>
+      <c r="AE5">
+        <v>-6</v>
+      </c>
+      <c r="AF5">
         <v>-0.25459999999999999</v>
       </c>
-      <c r="AC5">
+      <c r="AG5">
         <v>-8</v>
       </c>
-      <c r="AD5">
+      <c r="AH5">
         <v>-0.38219999999999998</v>
       </c>
-      <c r="AE5">
+      <c r="AI5">
         <v>-7</v>
       </c>
-      <c r="AF5">
+      <c r="AJ5">
         <v>-0.39479999999999998</v>
       </c>
-      <c r="AG5">
+      <c r="AK5">
         <v>-6</v>
       </c>
-      <c r="AH5">
+      <c r="AL5">
         <v>-0.42880000000000001</v>
       </c>
-      <c r="AI5">
+      <c r="AM5">
         <v>-6</v>
       </c>
-      <c r="AJ5">
+      <c r="AN5">
         <v>-0.42880000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>-6</v>
       </c>
@@ -1096,109 +1156,121 @@
         <v>-0.2777</v>
       </c>
       <c r="C6">
+        <v>-6</v>
+      </c>
+      <c r="D6">
+        <v>-0.2777</v>
+      </c>
+      <c r="E6">
+        <v>-6</v>
+      </c>
+      <c r="F6">
+        <v>-0.2777</v>
+      </c>
+      <c r="G6">
         <v>-9</v>
       </c>
-      <c r="D6">
+      <c r="H6">
         <v>6.3200000000000006E-2</v>
-      </c>
-      <c r="E6">
-        <v>-8</v>
-      </c>
-      <c r="F6">
-        <v>1.35E-2</v>
-      </c>
-      <c r="G6">
-        <v>-7</v>
-      </c>
-      <c r="H6">
-        <v>-0.1772</v>
       </c>
       <c r="I6">
         <v>-8</v>
       </c>
       <c r="J6">
-        <v>-0.18060000000000001</v>
+        <v>1.35E-2</v>
       </c>
       <c r="K6">
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="L6">
-        <v>-0.24529999999999999</v>
+        <v>-0.1772</v>
       </c>
       <c r="M6">
         <v>-8</v>
       </c>
       <c r="N6">
-        <v>-0.2712</v>
+        <v>-0.18060000000000001</v>
       </c>
       <c r="O6">
         <v>-8</v>
       </c>
       <c r="P6">
-        <v>-0.29220000000000002</v>
+        <v>-0.24529999999999999</v>
       </c>
       <c r="Q6">
         <v>-8</v>
       </c>
       <c r="R6">
-        <v>-0.31130000000000002</v>
+        <v>-0.2712</v>
       </c>
       <c r="S6">
         <v>-8</v>
       </c>
       <c r="T6">
-        <v>-0.33160000000000001</v>
+        <v>-0.29220000000000002</v>
       </c>
       <c r="U6">
         <v>-8</v>
       </c>
       <c r="V6">
+        <v>-0.31130000000000002</v>
+      </c>
+      <c r="W6">
+        <v>-8</v>
+      </c>
+      <c r="X6">
+        <v>-0.33160000000000001</v>
+      </c>
+      <c r="Y6">
+        <v>-8</v>
+      </c>
+      <c r="Z6">
         <v>-0.33839999999999998</v>
-      </c>
-      <c r="W6">
-        <v>-5</v>
-      </c>
-      <c r="X6">
-        <v>-0.1104</v>
-      </c>
-      <c r="Y6">
-        <v>-5</v>
-      </c>
-      <c r="Z6">
-        <v>-0.13170000000000001</v>
       </c>
       <c r="AA6">
         <v>-5</v>
       </c>
       <c r="AB6">
+        <v>-0.1104</v>
+      </c>
+      <c r="AC6">
+        <v>-5</v>
+      </c>
+      <c r="AD6">
+        <v>-0.13170000000000001</v>
+      </c>
+      <c r="AE6">
+        <v>-5</v>
+      </c>
+      <c r="AF6">
         <v>-0.1552</v>
       </c>
-      <c r="AC6">
+      <c r="AG6">
         <v>-7</v>
       </c>
-      <c r="AD6">
+      <c r="AH6">
         <v>-0.35649999999999998</v>
       </c>
-      <c r="AE6">
+      <c r="AI6">
         <v>-6</v>
       </c>
-      <c r="AF6">
+      <c r="AJ6">
         <v>-0.33689999999999998</v>
       </c>
-      <c r="AG6">
+      <c r="AK6">
         <v>-5</v>
       </c>
-      <c r="AH6">
+      <c r="AL6">
         <v>-0.40550000000000003</v>
       </c>
-      <c r="AI6">
+      <c r="AM6">
         <v>-5</v>
       </c>
-      <c r="AJ6">
+      <c r="AN6">
         <v>-0.40550000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>-5</v>
       </c>
@@ -1206,109 +1278,121 @@
         <v>-0.32240000000000002</v>
       </c>
       <c r="C7">
+        <v>-5</v>
+      </c>
+      <c r="D7">
+        <v>-0.32240000000000002</v>
+      </c>
+      <c r="E7">
+        <v>-5</v>
+      </c>
+      <c r="F7">
+        <v>-0.32240000000000002</v>
+      </c>
+      <c r="G7">
         <v>-8</v>
       </c>
-      <c r="D7">
+      <c r="H7">
         <v>1.0800000000000001E-2</v>
-      </c>
-      <c r="E7">
-        <v>-7</v>
-      </c>
-      <c r="F7">
-        <v>-0.2152</v>
-      </c>
-      <c r="G7">
-        <v>-6</v>
-      </c>
-      <c r="H7">
-        <v>-0.22220000000000001</v>
       </c>
       <c r="I7">
         <v>-7</v>
       </c>
       <c r="J7">
-        <v>-0.23549999999999999</v>
+        <v>-0.2152</v>
       </c>
       <c r="K7">
-        <v>-7</v>
+        <v>-6</v>
       </c>
       <c r="L7">
-        <v>-0.23980000000000001</v>
+        <v>-0.22220000000000001</v>
       </c>
       <c r="M7">
         <v>-7</v>
       </c>
       <c r="N7">
-        <v>-0.25009999999999999</v>
+        <v>-0.23549999999999999</v>
       </c>
       <c r="O7">
         <v>-7</v>
       </c>
       <c r="P7">
-        <v>-0.25459999999999999</v>
+        <v>-0.23980000000000001</v>
       </c>
       <c r="Q7">
         <v>-7</v>
       </c>
       <c r="R7">
-        <v>-0.26650000000000001</v>
+        <v>-0.25009999999999999</v>
       </c>
       <c r="S7">
         <v>-7</v>
       </c>
       <c r="T7">
-        <v>-0.2727</v>
+        <v>-0.25459999999999999</v>
       </c>
       <c r="U7">
         <v>-7</v>
       </c>
       <c r="V7">
+        <v>-0.26650000000000001</v>
+      </c>
+      <c r="W7">
+        <v>-7</v>
+      </c>
+      <c r="X7">
+        <v>-0.2727</v>
+      </c>
+      <c r="Y7">
+        <v>-7</v>
+      </c>
+      <c r="Z7">
         <v>-0.28739999999999999</v>
-      </c>
-      <c r="W7">
-        <v>-4</v>
-      </c>
-      <c r="X7">
-        <v>-1.15E-2</v>
-      </c>
-      <c r="Y7">
-        <v>-4</v>
-      </c>
-      <c r="Z7">
-        <v>-2.6100000000000002E-2</v>
       </c>
       <c r="AA7">
         <v>-4</v>
       </c>
       <c r="AB7">
+        <v>-1.15E-2</v>
+      </c>
+      <c r="AC7">
+        <v>-4</v>
+      </c>
+      <c r="AD7">
+        <v>-2.6100000000000002E-2</v>
+      </c>
+      <c r="AE7">
+        <v>-4</v>
+      </c>
+      <c r="AF7">
         <v>-4.65E-2</v>
       </c>
-      <c r="AC7">
+      <c r="AG7">
         <v>-6</v>
       </c>
-      <c r="AD7">
+      <c r="AH7">
         <v>-0.28410000000000002</v>
       </c>
-      <c r="AE7">
+      <c r="AI7">
         <v>-5</v>
       </c>
-      <c r="AF7">
+      <c r="AJ7">
         <v>-0.23710000000000001</v>
       </c>
-      <c r="AG7">
+      <c r="AK7">
         <v>-4</v>
       </c>
-      <c r="AH7">
+      <c r="AL7">
         <v>-0.32640000000000002</v>
       </c>
-      <c r="AI7">
+      <c r="AM7">
         <v>-4</v>
       </c>
-      <c r="AJ7">
+      <c r="AN7">
         <v>-0.32640000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>-4</v>
       </c>
@@ -1316,109 +1400,121 @@
         <v>-0.31240000000000001</v>
       </c>
       <c r="C8">
+        <v>-4</v>
+      </c>
+      <c r="D8">
+        <v>-0.31240000000000001</v>
+      </c>
+      <c r="E8">
+        <v>-4</v>
+      </c>
+      <c r="F8">
+        <v>-0.31240000000000001</v>
+      </c>
+      <c r="G8">
         <v>-7</v>
       </c>
-      <c r="D8">
+      <c r="H8">
         <v>-8.9899999999999994E-2</v>
-      </c>
-      <c r="E8">
-        <v>-6</v>
-      </c>
-      <c r="F8">
-        <v>-0.23180000000000001</v>
-      </c>
-      <c r="G8">
-        <v>-5</v>
-      </c>
-      <c r="H8">
-        <v>-0.1762</v>
       </c>
       <c r="I8">
         <v>-6</v>
       </c>
       <c r="J8">
-        <v>-0.1993</v>
+        <v>-0.23180000000000001</v>
       </c>
       <c r="K8">
-        <v>-6</v>
+        <v>-5</v>
       </c>
       <c r="L8">
-        <v>-0.1779</v>
+        <v>-0.1762</v>
       </c>
       <c r="M8">
         <v>-6</v>
       </c>
       <c r="N8">
-        <v>-0.17979999999999999</v>
+        <v>-0.1993</v>
       </c>
       <c r="O8">
         <v>-6</v>
       </c>
       <c r="P8">
-        <v>-0.1769</v>
+        <v>-0.1779</v>
       </c>
       <c r="Q8">
         <v>-6</v>
       </c>
       <c r="R8">
-        <v>-0.18</v>
+        <v>-0.17979999999999999</v>
       </c>
       <c r="S8">
         <v>-6</v>
       </c>
       <c r="T8">
-        <v>-0.19040000000000001</v>
+        <v>-0.1769</v>
       </c>
       <c r="U8">
         <v>-6</v>
       </c>
       <c r="V8">
+        <v>-0.18</v>
+      </c>
+      <c r="W8">
+        <v>-6</v>
+      </c>
+      <c r="X8">
+        <v>-0.19040000000000001</v>
+      </c>
+      <c r="Y8">
+        <v>-6</v>
+      </c>
+      <c r="Z8">
         <v>-0.19600000000000001</v>
-      </c>
-      <c r="W8">
-        <v>-3</v>
-      </c>
-      <c r="X8">
-        <v>9.6799999999999997E-2</v>
-      </c>
-      <c r="Y8">
-        <v>-3</v>
-      </c>
-      <c r="Z8">
-        <v>7.8700000000000006E-2</v>
       </c>
       <c r="AA8">
         <v>-3</v>
       </c>
       <c r="AB8">
+        <v>9.6799999999999997E-2</v>
+      </c>
+      <c r="AC8">
+        <v>-3</v>
+      </c>
+      <c r="AD8">
+        <v>7.8700000000000006E-2</v>
+      </c>
+      <c r="AE8">
+        <v>-3</v>
+      </c>
+      <c r="AF8">
         <v>5.8299999999999998E-2</v>
       </c>
-      <c r="AC8">
+      <c r="AG8">
         <v>-5</v>
       </c>
-      <c r="AD8">
+      <c r="AH8">
         <v>-0.18279999999999999</v>
       </c>
-      <c r="AE8">
+      <c r="AI8">
         <v>-4</v>
       </c>
-      <c r="AF8">
+      <c r="AJ8">
         <v>-0.1212</v>
       </c>
-      <c r="AG8">
+      <c r="AK8">
         <v>-3</v>
       </c>
-      <c r="AH8">
+      <c r="AL8">
         <v>-0.19600000000000001</v>
       </c>
-      <c r="AI8">
+      <c r="AM8">
         <v>-3</v>
       </c>
-      <c r="AJ8">
+      <c r="AN8">
         <v>-0.19600000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>-3</v>
       </c>
@@ -1426,109 +1522,121 @@
         <v>-0.27700000000000002</v>
       </c>
       <c r="C9">
+        <v>-3</v>
+      </c>
+      <c r="D9">
+        <v>-0.27700000000000002</v>
+      </c>
+      <c r="E9">
+        <v>-3</v>
+      </c>
+      <c r="F9">
+        <v>-0.27700000000000002</v>
+      </c>
+      <c r="G9">
         <v>-6</v>
       </c>
-      <c r="D9">
+      <c r="H9">
         <v>-0.22550000000000001</v>
-      </c>
-      <c r="E9">
-        <v>-5</v>
-      </c>
-      <c r="F9">
-        <v>-0.18970000000000001</v>
-      </c>
-      <c r="G9">
-        <v>-4</v>
-      </c>
-      <c r="H9">
-        <v>-0.10580000000000001</v>
       </c>
       <c r="I9">
         <v>-5</v>
       </c>
       <c r="J9">
+        <v>-0.18970000000000001</v>
+      </c>
+      <c r="K9">
+        <v>-4</v>
+      </c>
+      <c r="L9">
+        <v>-0.10580000000000001</v>
+      </c>
+      <c r="M9">
+        <v>-5</v>
+      </c>
+      <c r="N9">
         <v>-0.13009999999999999</v>
-      </c>
-      <c r="K9">
-        <v>-5</v>
-      </c>
-      <c r="L9">
-        <v>-0.104</v>
-      </c>
-      <c r="M9">
-        <v>-4</v>
-      </c>
-      <c r="N9">
-        <v>3.8E-3</v>
       </c>
       <c r="O9">
         <v>-5</v>
       </c>
       <c r="P9">
-        <v>-9.0499999999999997E-2</v>
+        <v>-0.104</v>
       </c>
       <c r="Q9">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="R9">
-        <v>-8.6800000000000002E-2</v>
+        <v>3.8E-3</v>
       </c>
       <c r="S9">
         <v>-5</v>
       </c>
       <c r="T9">
-        <v>-9.1999999999999998E-2</v>
+        <v>-9.0499999999999997E-2</v>
       </c>
       <c r="U9">
         <v>-5</v>
       </c>
       <c r="V9">
+        <v>-8.6800000000000002E-2</v>
+      </c>
+      <c r="W9">
+        <v>-5</v>
+      </c>
+      <c r="X9">
+        <v>-9.1999999999999998E-2</v>
+      </c>
+      <c r="Y9">
+        <v>-5</v>
+      </c>
+      <c r="Z9">
         <v>-0.1009</v>
-      </c>
-      <c r="W9">
-        <v>-2</v>
-      </c>
-      <c r="X9">
-        <v>0.2</v>
-      </c>
-      <c r="Y9">
-        <v>-2</v>
-      </c>
-      <c r="Z9">
-        <v>0.1885</v>
       </c>
       <c r="AA9">
         <v>-2</v>
       </c>
       <c r="AB9">
+        <v>0.2</v>
+      </c>
+      <c r="AC9">
+        <v>-2</v>
+      </c>
+      <c r="AD9">
+        <v>0.1885</v>
+      </c>
+      <c r="AE9">
+        <v>-2</v>
+      </c>
+      <c r="AF9">
         <v>0.16830000000000001</v>
       </c>
-      <c r="AC9">
+      <c r="AG9">
         <v>-4</v>
       </c>
-      <c r="AD9">
+      <c r="AH9">
         <v>-7.3099999999999998E-2</v>
       </c>
-      <c r="AE9">
+      <c r="AI9">
         <v>-3</v>
       </c>
-      <c r="AF9">
+      <c r="AJ9">
         <v>-8.8000000000000005E-3</v>
       </c>
-      <c r="AG9">
+      <c r="AK9">
         <v>-2</v>
       </c>
-      <c r="AH9">
+      <c r="AL9">
         <v>-7.0699999999999999E-2</v>
       </c>
-      <c r="AI9">
+      <c r="AM9">
         <v>-2</v>
       </c>
-      <c r="AJ9">
+      <c r="AN9">
         <v>-7.0699999999999999E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>-2</v>
       </c>
@@ -1536,109 +1644,121 @@
         <v>-0.2291</v>
       </c>
       <c r="C10">
+        <v>-2</v>
+      </c>
+      <c r="D10">
+        <v>-0.2291</v>
+      </c>
+      <c r="E10">
+        <v>-2</v>
+      </c>
+      <c r="F10">
+        <v>-0.2291</v>
+      </c>
+      <c r="G10">
         <v>-5</v>
       </c>
-      <c r="D10">
+      <c r="H10">
         <v>-0.2293</v>
-      </c>
-      <c r="E10">
-        <v>-4</v>
-      </c>
-      <c r="F10">
-        <v>-0.1244</v>
-      </c>
-      <c r="G10">
-        <v>-3</v>
-      </c>
-      <c r="H10">
-        <v>-2.6700000000000002E-2</v>
       </c>
       <c r="I10">
         <v>-4</v>
       </c>
       <c r="J10">
+        <v>-0.1244</v>
+      </c>
+      <c r="K10">
+        <v>-3</v>
+      </c>
+      <c r="L10">
+        <v>-2.6700000000000002E-2</v>
+      </c>
+      <c r="M10">
+        <v>-4</v>
+      </c>
+      <c r="N10">
         <v>-4.8899999999999999E-2</v>
-      </c>
-      <c r="K10">
-        <v>-4</v>
-      </c>
-      <c r="L10">
-        <v>-2.53E-2</v>
-      </c>
-      <c r="M10">
-        <v>-3</v>
-      </c>
-      <c r="N10">
-        <v>9.06E-2</v>
       </c>
       <c r="O10">
         <v>-4</v>
       </c>
       <c r="P10">
-        <v>6.0000000000000001E-3</v>
+        <v>-2.53E-2</v>
       </c>
       <c r="Q10">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="R10">
-        <v>7.6E-3</v>
+        <v>9.06E-2</v>
       </c>
       <c r="S10">
         <v>-4</v>
       </c>
       <c r="T10">
-        <v>6.8999999999999999E-3</v>
+        <v>6.0000000000000001E-3</v>
       </c>
       <c r="U10">
         <v>-4</v>
       </c>
       <c r="V10">
+        <v>7.6E-3</v>
+      </c>
+      <c r="W10">
+        <v>-4</v>
+      </c>
+      <c r="X10">
+        <v>6.8999999999999999E-3</v>
+      </c>
+      <c r="Y10">
+        <v>-4</v>
+      </c>
+      <c r="Z10">
         <v>4.1000000000000003E-3</v>
-      </c>
-      <c r="W10">
-        <v>-1</v>
-      </c>
-      <c r="X10">
-        <v>0.30730000000000002</v>
-      </c>
-      <c r="Y10">
-        <v>-1</v>
-      </c>
-      <c r="Z10">
-        <v>0.2959</v>
       </c>
       <c r="AA10">
         <v>-1</v>
       </c>
       <c r="AB10">
+        <v>0.30730000000000002</v>
+      </c>
+      <c r="AC10">
+        <v>-1</v>
+      </c>
+      <c r="AD10">
+        <v>0.2959</v>
+      </c>
+      <c r="AE10">
+        <v>-1</v>
+      </c>
+      <c r="AF10">
         <v>0.2782</v>
       </c>
-      <c r="AC10">
+      <c r="AG10">
         <v>-3</v>
       </c>
-      <c r="AD10">
+      <c r="AH10">
         <v>3.3000000000000002E-2</v>
       </c>
-      <c r="AE10">
+      <c r="AI10">
         <v>-2</v>
       </c>
-      <c r="AF10">
+      <c r="AJ10">
         <v>0.1008</v>
       </c>
-      <c r="AG10">
+      <c r="AK10">
         <v>-1</v>
       </c>
-      <c r="AH10">
+      <c r="AL10">
         <v>4.7199999999999999E-2</v>
       </c>
-      <c r="AI10">
+      <c r="AM10">
         <v>-1</v>
       </c>
-      <c r="AJ10">
+      <c r="AN10">
         <v>4.7199999999999999E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>-1</v>
       </c>
@@ -1646,109 +1766,121 @@
         <v>-0.17069999999999999</v>
       </c>
       <c r="C11">
+        <v>-1</v>
+      </c>
+      <c r="D11">
+        <v>-0.17069999999999999</v>
+      </c>
+      <c r="E11">
+        <v>-1</v>
+      </c>
+      <c r="F11">
+        <v>-0.17069999999999999</v>
+      </c>
+      <c r="G11">
         <v>-4</v>
       </c>
-      <c r="D11">
+      <c r="H11">
         <v>-0.16569999999999999</v>
-      </c>
-      <c r="E11">
-        <v>-3</v>
-      </c>
-      <c r="F11">
-        <v>-4.8099999999999997E-2</v>
-      </c>
-      <c r="G11">
-        <v>-2</v>
-      </c>
-      <c r="H11">
-        <v>5.6599999999999998E-2</v>
       </c>
       <c r="I11">
         <v>-3</v>
       </c>
       <c r="J11">
+        <v>-4.8099999999999997E-2</v>
+      </c>
+      <c r="K11">
+        <v>-2</v>
+      </c>
+      <c r="L11">
+        <v>5.6599999999999998E-2</v>
+      </c>
+      <c r="M11">
+        <v>-3</v>
+      </c>
+      <c r="N11">
         <v>3.8300000000000001E-2</v>
-      </c>
-      <c r="K11">
-        <v>-3</v>
-      </c>
-      <c r="L11">
-        <v>6.25E-2</v>
-      </c>
-      <c r="M11">
-        <v>-2</v>
-      </c>
-      <c r="N11">
-        <v>0.185</v>
       </c>
       <c r="O11">
         <v>-3</v>
       </c>
       <c r="P11">
-        <v>0.1079</v>
+        <v>6.25E-2</v>
       </c>
       <c r="Q11">
-        <v>-3</v>
+        <v>-2</v>
       </c>
       <c r="R11">
-        <v>0.10970000000000001</v>
+        <v>0.185</v>
       </c>
       <c r="S11">
         <v>-3</v>
       </c>
       <c r="T11">
-        <v>0.10780000000000001</v>
+        <v>0.1079</v>
       </c>
       <c r="U11">
         <v>-3</v>
       </c>
       <c r="V11">
+        <v>0.10970000000000001</v>
+      </c>
+      <c r="W11">
+        <v>-3</v>
+      </c>
+      <c r="X11">
+        <v>0.10780000000000001</v>
+      </c>
+      <c r="Y11">
+        <v>-3</v>
+      </c>
+      <c r="Z11">
         <v>0.10440000000000001</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0.40379999999999999</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0.38829999999999998</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
+        <v>0.40379999999999999</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0.38829999999999998</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
         <v>0.38</v>
       </c>
-      <c r="AC11">
+      <c r="AG11">
         <v>-2</v>
       </c>
-      <c r="AD11">
+      <c r="AH11">
         <v>0.14360000000000001</v>
       </c>
-      <c r="AE11">
+      <c r="AI11">
         <v>-1</v>
       </c>
-      <c r="AF11">
+      <c r="AJ11">
         <v>0.2036</v>
       </c>
-      <c r="AG11">
+      <c r="AK11">
         <v>0</v>
       </c>
-      <c r="AH11">
+      <c r="AL11">
         <v>0.16569999999999999</v>
       </c>
-      <c r="AI11">
+      <c r="AM11">
         <v>0</v>
       </c>
-      <c r="AJ11">
+      <c r="AN11">
         <v>0.16569999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1756,109 +1888,121 @@
         <v>-9.0700000000000003E-2</v>
       </c>
       <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>-9.0700000000000003E-2</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>-9.0700000000000003E-2</v>
+      </c>
+      <c r="G12">
         <v>-3</v>
       </c>
-      <c r="D12">
+      <c r="H12">
         <v>-9.5699999999999993E-2</v>
-      </c>
-      <c r="E12">
-        <v>-2</v>
-      </c>
-      <c r="F12">
-        <v>2.12E-2</v>
-      </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
-      <c r="H12">
-        <v>0.1449</v>
       </c>
       <c r="I12">
         <v>-2</v>
       </c>
       <c r="J12">
+        <v>2.12E-2</v>
+      </c>
+      <c r="K12">
+        <v>-1</v>
+      </c>
+      <c r="L12">
+        <v>0.1449</v>
+      </c>
+      <c r="M12">
+        <v>-2</v>
+      </c>
+      <c r="N12">
         <v>0.108</v>
-      </c>
-      <c r="K12">
-        <v>-2</v>
-      </c>
-      <c r="L12">
-        <v>0.15579999999999999</v>
-      </c>
-      <c r="M12">
-        <v>-1</v>
-      </c>
-      <c r="N12">
-        <v>0.28470000000000001</v>
       </c>
       <c r="O12">
         <v>-2</v>
       </c>
       <c r="P12">
-        <v>0.20519999999999999</v>
+        <v>0.15579999999999999</v>
       </c>
       <c r="Q12">
-        <v>-2</v>
+        <v>-1</v>
       </c>
       <c r="R12">
-        <v>0.21690000000000001</v>
+        <v>0.28470000000000001</v>
       </c>
       <c r="S12">
         <v>-2</v>
       </c>
       <c r="T12">
-        <v>0.21479999999999999</v>
+        <v>0.20519999999999999</v>
       </c>
       <c r="U12">
         <v>-2</v>
       </c>
       <c r="V12">
+        <v>0.21690000000000001</v>
+      </c>
+      <c r="W12">
+        <v>-2</v>
+      </c>
+      <c r="X12">
+        <v>0.21479999999999999</v>
+      </c>
+      <c r="Y12">
+        <v>-2</v>
+      </c>
+      <c r="Z12">
         <v>0.2109</v>
-      </c>
-      <c r="W12">
-        <v>1</v>
-      </c>
-      <c r="X12">
-        <v>0.54890000000000005</v>
-      </c>
-      <c r="Y12">
-        <v>1</v>
-      </c>
-      <c r="Z12">
-        <v>0.53759999999999997</v>
       </c>
       <c r="AA12">
         <v>1</v>
       </c>
       <c r="AB12">
+        <v>0.54890000000000005</v>
+      </c>
+      <c r="AC12">
+        <v>1</v>
+      </c>
+      <c r="AD12">
+        <v>0.53759999999999997</v>
+      </c>
+      <c r="AE12">
+        <v>1</v>
+      </c>
+      <c r="AF12">
         <v>0.51700000000000002</v>
       </c>
-      <c r="AC12">
+      <c r="AG12">
         <v>-1</v>
       </c>
-      <c r="AD12">
+      <c r="AH12">
         <v>0.2525</v>
       </c>
-      <c r="AE12">
+      <c r="AI12">
         <v>0</v>
       </c>
-      <c r="AF12">
+      <c r="AJ12">
         <v>0.34250000000000003</v>
       </c>
-      <c r="AG12">
+      <c r="AK12">
         <v>1</v>
       </c>
-      <c r="AH12">
+      <c r="AL12">
         <v>0.2752</v>
       </c>
-      <c r="AI12">
+      <c r="AM12">
         <v>1</v>
       </c>
-      <c r="AJ12">
+      <c r="AN12">
         <v>0.2752</v>
       </c>
     </row>
-    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>1</v>
       </c>
@@ -1866,109 +2010,121 @@
         <v>-3.32E-2</v>
       </c>
       <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>-3.32E-2</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>-3.32E-2</v>
+      </c>
+      <c r="G13">
         <v>-2</v>
       </c>
-      <c r="D13">
+      <c r="H13">
         <v>-2.23E-2</v>
-      </c>
-      <c r="E13">
-        <v>-1</v>
-      </c>
-      <c r="F13">
-        <v>8.9399999999999993E-2</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0.21360000000000001</v>
       </c>
       <c r="I13">
         <v>-1</v>
       </c>
       <c r="J13">
+        <v>8.9399999999999993E-2</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0.21360000000000001</v>
+      </c>
+      <c r="M13">
+        <v>-1</v>
+      </c>
+      <c r="N13">
         <v>0.19239999999999999</v>
-      </c>
-      <c r="K13">
-        <v>-1</v>
-      </c>
-      <c r="L13">
-        <v>0.25290000000000001</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0.37230000000000002</v>
       </c>
       <c r="O13">
         <v>-1</v>
       </c>
       <c r="P13">
-        <v>0.30309999999999998</v>
+        <v>0.25290000000000001</v>
       </c>
       <c r="Q13">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>0.31369999999999998</v>
+        <v>0.37230000000000002</v>
       </c>
       <c r="S13">
         <v>-1</v>
       </c>
       <c r="T13">
-        <v>0.317</v>
+        <v>0.30309999999999998</v>
       </c>
       <c r="U13">
         <v>-1</v>
       </c>
       <c r="V13">
+        <v>0.31369999999999998</v>
+      </c>
+      <c r="W13">
+        <v>-1</v>
+      </c>
+      <c r="X13">
+        <v>0.317</v>
+      </c>
+      <c r="Y13">
+        <v>-1</v>
+      </c>
+      <c r="Z13">
         <v>0.31590000000000001</v>
-      </c>
-      <c r="W13">
-        <v>2</v>
-      </c>
-      <c r="X13">
-        <v>0.63680000000000003</v>
-      </c>
-      <c r="Y13">
-        <v>2</v>
-      </c>
-      <c r="Z13">
-        <v>0.62680000000000002</v>
       </c>
       <c r="AA13">
         <v>2</v>
       </c>
       <c r="AB13">
+        <v>0.63680000000000003</v>
+      </c>
+      <c r="AC13">
+        <v>2</v>
+      </c>
+      <c r="AD13">
+        <v>0.62680000000000002</v>
+      </c>
+      <c r="AE13">
+        <v>2</v>
+      </c>
+      <c r="AF13">
         <v>0.60970000000000002</v>
       </c>
-      <c r="AC13">
+      <c r="AG13">
         <v>0</v>
       </c>
-      <c r="AD13">
+      <c r="AH13">
         <v>0.38229999999999997</v>
       </c>
-      <c r="AE13">
+      <c r="AI13">
         <v>1</v>
       </c>
-      <c r="AF13">
+      <c r="AJ13">
         <v>0.44419999999999998</v>
       </c>
-      <c r="AG13">
+      <c r="AK13">
         <v>2</v>
       </c>
-      <c r="AH13">
+      <c r="AL13">
         <v>0.37509999999999999</v>
       </c>
-      <c r="AI13">
+      <c r="AM13">
         <v>2</v>
       </c>
-      <c r="AJ13">
+      <c r="AN13">
         <v>0.37509999999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2</v>
       </c>
@@ -1976,109 +2132,121 @@
         <v>4.1500000000000002E-2</v>
       </c>
       <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="G14">
         <v>-1</v>
       </c>
-      <c r="D14">
+      <c r="H14">
         <v>5.9200000000000003E-2</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0.18110000000000001</v>
-      </c>
-      <c r="G14">
-        <v>1</v>
-      </c>
-      <c r="H14">
-        <v>0.28549999999999998</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
+        <v>0.18110000000000001</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.28549999999999998</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
         <v>0.2782</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0.33550000000000002</v>
-      </c>
-      <c r="M14">
-        <v>1</v>
-      </c>
-      <c r="N14">
-        <v>0.45419999999999999</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0.3972</v>
+        <v>0.33550000000000002</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14">
-        <v>0.41049999999999998</v>
+        <v>0.45419999999999999</v>
       </c>
       <c r="S14">
         <v>0</v>
       </c>
       <c r="T14">
-        <v>0.41260000000000002</v>
+        <v>0.3972</v>
       </c>
       <c r="U14">
         <v>0</v>
       </c>
       <c r="V14">
+        <v>0.41049999999999998</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0.41260000000000002</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
         <v>0.41139999999999999</v>
-      </c>
-      <c r="W14">
-        <v>3</v>
-      </c>
-      <c r="X14">
-        <v>0.72360000000000002</v>
-      </c>
-      <c r="Y14">
-        <v>3</v>
-      </c>
-      <c r="Z14">
-        <v>0.71699999999999997</v>
       </c>
       <c r="AA14">
         <v>3</v>
       </c>
       <c r="AB14">
+        <v>0.72360000000000002</v>
+      </c>
+      <c r="AC14">
+        <v>3</v>
+      </c>
+      <c r="AD14">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="AE14">
+        <v>3</v>
+      </c>
+      <c r="AF14">
         <v>0.70240000000000002</v>
       </c>
-      <c r="AC14">
+      <c r="AG14">
         <v>1</v>
       </c>
-      <c r="AD14">
+      <c r="AH14">
         <v>0.49049999999999999</v>
       </c>
-      <c r="AE14">
+      <c r="AI14">
         <v>2</v>
       </c>
-      <c r="AF14">
+      <c r="AJ14">
         <v>0.54139999999999999</v>
       </c>
-      <c r="AG14">
+      <c r="AK14">
         <v>3</v>
       </c>
-      <c r="AH14">
+      <c r="AL14">
         <v>0.47320000000000001</v>
       </c>
-      <c r="AI14">
+      <c r="AM14">
         <v>3</v>
       </c>
-      <c r="AJ14">
+      <c r="AN14">
         <v>0.47320000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3</v>
       </c>
@@ -2086,109 +2254,121 @@
         <v>9.8799999999999999E-2</v>
       </c>
       <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>9.8799999999999999E-2</v>
+      </c>
+      <c r="G15">
         <v>0</v>
       </c>
-      <c r="D15">
+      <c r="H15">
         <v>0.1278</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>0.24340000000000001</v>
-      </c>
-      <c r="G15">
-        <v>2</v>
-      </c>
-      <c r="H15">
-        <v>0.35580000000000001</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
       <c r="J15">
+        <v>0.24340000000000001</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.35580000000000001</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
         <v>0.36380000000000001</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-      <c r="L15">
-        <v>0.40579999999999999</v>
-      </c>
-      <c r="M15">
-        <v>2</v>
-      </c>
-      <c r="N15">
-        <v>0.54930000000000001</v>
       </c>
       <c r="O15">
         <v>1</v>
       </c>
       <c r="P15">
-        <v>0.50470000000000004</v>
+        <v>0.40579999999999999</v>
       </c>
       <c r="Q15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R15">
-        <v>0.53120000000000001</v>
+        <v>0.54930000000000001</v>
       </c>
       <c r="S15">
         <v>1</v>
       </c>
       <c r="T15">
-        <v>0.54339999999999999</v>
+        <v>0.50470000000000004</v>
       </c>
       <c r="U15">
         <v>1</v>
       </c>
       <c r="V15">
+        <v>0.53120000000000001</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0.54339999999999999</v>
+      </c>
+      <c r="Y15">
+        <v>1</v>
+      </c>
+      <c r="Z15">
         <v>0.54930000000000001</v>
-      </c>
-      <c r="W15">
-        <v>4</v>
-      </c>
-      <c r="X15">
-        <v>0.80840000000000001</v>
-      </c>
-      <c r="Y15">
-        <v>4</v>
-      </c>
-      <c r="Z15">
-        <v>0.8044</v>
       </c>
       <c r="AA15">
         <v>4</v>
       </c>
       <c r="AB15">
+        <v>0.80840000000000001</v>
+      </c>
+      <c r="AC15">
+        <v>4</v>
+      </c>
+      <c r="AD15">
+        <v>0.8044</v>
+      </c>
+      <c r="AE15">
+        <v>4</v>
+      </c>
+      <c r="AF15">
         <v>0.79259999999999997</v>
       </c>
-      <c r="AC15">
+      <c r="AG15">
         <v>2</v>
       </c>
-      <c r="AD15">
+      <c r="AH15">
         <v>0.58479999999999999</v>
       </c>
-      <c r="AE15">
+      <c r="AI15">
         <v>3</v>
       </c>
-      <c r="AF15">
+      <c r="AJ15">
         <v>0.6351</v>
       </c>
-      <c r="AG15">
+      <c r="AK15">
         <v>4</v>
       </c>
-      <c r="AH15">
+      <c r="AL15">
         <v>0.56289999999999996</v>
       </c>
-      <c r="AI15">
+      <c r="AM15">
         <v>4</v>
       </c>
-      <c r="AJ15">
+      <c r="AN15">
         <v>0.56289999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>4</v>
       </c>
@@ -2196,109 +2376,121 @@
         <v>0.23599999999999999</v>
       </c>
       <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>0.23599999999999999</v>
+      </c>
+      <c r="G16">
         <v>1</v>
       </c>
-      <c r="D16">
+      <c r="H16">
         <v>0.21179999999999999</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.30409999999999998</v>
-      </c>
-      <c r="G16">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>0.42099999999999999</v>
       </c>
       <c r="I16">
         <v>2</v>
       </c>
       <c r="J16">
+        <v>0.30409999999999998</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>0.42099999999999999</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16">
         <v>0.43459999999999999</v>
-      </c>
-      <c r="K16">
-        <v>2</v>
-      </c>
-      <c r="L16">
-        <v>0.49790000000000001</v>
-      </c>
-      <c r="M16">
-        <v>3</v>
-      </c>
-      <c r="N16">
-        <v>0.62590000000000001</v>
       </c>
       <c r="O16">
         <v>2</v>
       </c>
       <c r="P16">
-        <v>0.59109999999999996</v>
+        <v>0.49790000000000001</v>
       </c>
       <c r="Q16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R16">
-        <v>0.62039999999999995</v>
+        <v>0.62590000000000001</v>
       </c>
       <c r="S16">
         <v>2</v>
       </c>
       <c r="T16">
-        <v>0.6321</v>
+        <v>0.59109999999999996</v>
       </c>
       <c r="U16">
         <v>2</v>
       </c>
       <c r="V16">
+        <v>0.62039999999999995</v>
+      </c>
+      <c r="W16">
+        <v>2</v>
+      </c>
+      <c r="X16">
+        <v>0.6321</v>
+      </c>
+      <c r="Y16">
+        <v>2</v>
+      </c>
+      <c r="Z16">
         <v>0.63890000000000002</v>
-      </c>
-      <c r="W16">
-        <v>5</v>
-      </c>
-      <c r="X16">
-        <v>0.88749999999999996</v>
-      </c>
-      <c r="Y16">
-        <v>5</v>
-      </c>
-      <c r="Z16">
-        <v>0.88780000000000003</v>
       </c>
       <c r="AA16">
         <v>5</v>
       </c>
       <c r="AB16">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="AC16">
+        <v>5</v>
+      </c>
+      <c r="AD16">
+        <v>0.88780000000000003</v>
+      </c>
+      <c r="AE16">
+        <v>5</v>
+      </c>
+      <c r="AF16">
         <v>0.87880000000000003</v>
       </c>
-      <c r="AC16">
+      <c r="AG16">
         <v>3</v>
       </c>
-      <c r="AD16">
+      <c r="AH16">
         <v>0.67969999999999997</v>
       </c>
-      <c r="AE16">
+      <c r="AI16">
         <v>4</v>
       </c>
-      <c r="AF16">
+      <c r="AJ16">
         <v>0.72950000000000004</v>
       </c>
-      <c r="AG16">
+      <c r="AK16">
         <v>5</v>
       </c>
-      <c r="AH16">
+      <c r="AL16">
         <v>0.64359999999999995</v>
       </c>
-      <c r="AI16">
+      <c r="AM16">
         <v>5</v>
       </c>
-      <c r="AJ16">
+      <c r="AN16">
         <v>0.64359999999999995</v>
       </c>
     </row>
-    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>5</v>
       </c>
@@ -2306,109 +2498,121 @@
         <v>0.2727</v>
       </c>
       <c r="C17">
+        <v>5</v>
+      </c>
+      <c r="D17">
+        <v>0.2727</v>
+      </c>
+      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="F17">
+        <v>0.2727</v>
+      </c>
+      <c r="G17">
         <v>2</v>
       </c>
-      <c r="D17">
+      <c r="H17">
         <v>0.26579999999999998</v>
-      </c>
-      <c r="E17">
-        <v>3</v>
-      </c>
-      <c r="F17">
-        <v>0.37680000000000002</v>
-      </c>
-      <c r="G17">
-        <v>4</v>
-      </c>
-      <c r="H17">
-        <v>0.47770000000000001</v>
       </c>
       <c r="I17">
         <v>3</v>
       </c>
       <c r="J17">
+        <v>0.37680000000000002</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17">
+        <v>0.47770000000000001</v>
+      </c>
+      <c r="M17">
+        <v>3</v>
+      </c>
+      <c r="N17">
         <v>0.50139999999999996</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>0.57210000000000005</v>
-      </c>
-      <c r="M17">
-        <v>4</v>
-      </c>
-      <c r="N17">
-        <v>0.70289999999999997</v>
       </c>
       <c r="O17">
         <v>3</v>
       </c>
       <c r="P17">
-        <v>0.6694</v>
+        <v>0.57210000000000005</v>
       </c>
       <c r="Q17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R17">
-        <v>0.6946</v>
+        <v>0.70289999999999997</v>
       </c>
       <c r="S17">
         <v>3</v>
       </c>
       <c r="T17">
-        <v>0.7157</v>
+        <v>0.6694</v>
       </c>
       <c r="U17">
         <v>3</v>
       </c>
       <c r="V17">
+        <v>0.6946</v>
+      </c>
+      <c r="W17">
+        <v>3</v>
+      </c>
+      <c r="X17">
+        <v>0.7157</v>
+      </c>
+      <c r="Y17">
+        <v>3</v>
+      </c>
+      <c r="Z17">
         <v>0.72309999999999997</v>
-      </c>
-      <c r="W17">
-        <v>6</v>
-      </c>
-      <c r="X17">
-        <v>0.96389999999999998</v>
-      </c>
-      <c r="Y17">
-        <v>6</v>
-      </c>
-      <c r="Z17">
-        <v>0.96709999999999996</v>
       </c>
       <c r="AA17">
         <v>6</v>
       </c>
       <c r="AB17">
+        <v>0.96389999999999998</v>
+      </c>
+      <c r="AC17">
+        <v>6</v>
+      </c>
+      <c r="AD17">
+        <v>0.96709999999999996</v>
+      </c>
+      <c r="AE17">
+        <v>6</v>
+      </c>
+      <c r="AF17">
         <v>0.96189999999999998</v>
       </c>
-      <c r="AC17">
+      <c r="AG17">
         <v>4</v>
       </c>
-      <c r="AD17">
+      <c r="AH17">
         <v>0.77159999999999995</v>
       </c>
-      <c r="AE17">
+      <c r="AI17">
         <v>5</v>
       </c>
-      <c r="AF17">
+      <c r="AJ17">
         <v>0.8216</v>
       </c>
-      <c r="AG17">
+      <c r="AK17">
         <v>6</v>
       </c>
-      <c r="AH17">
+      <c r="AL17">
         <v>0.71740000000000004</v>
       </c>
-      <c r="AI17">
+      <c r="AM17">
         <v>6</v>
       </c>
-      <c r="AJ17">
+      <c r="AN17">
         <v>0.71740000000000004</v>
       </c>
     </row>
-    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>6</v>
       </c>
@@ -2416,76 +2620,76 @@
         <v>0.31459999999999999</v>
       </c>
       <c r="C18">
+        <v>6</v>
+      </c>
+      <c r="D18">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="E18">
+        <v>6</v>
+      </c>
+      <c r="F18">
+        <v>0.31459999999999999</v>
+      </c>
+      <c r="G18">
         <v>3</v>
       </c>
-      <c r="D18">
+      <c r="H18">
         <v>0.31409999999999999</v>
-      </c>
-      <c r="E18">
-        <v>4</v>
-      </c>
-      <c r="F18">
-        <v>0.42459999999999998</v>
-      </c>
-      <c r="G18">
-        <v>5</v>
-      </c>
-      <c r="H18">
-        <v>0.54630000000000001</v>
       </c>
       <c r="I18">
         <v>4</v>
       </c>
       <c r="J18">
+        <v>0.42459999999999998</v>
+      </c>
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>0.54630000000000001</v>
+      </c>
+      <c r="M18">
+        <v>4</v>
+      </c>
+      <c r="N18">
         <v>0.56840000000000002</v>
-      </c>
-      <c r="K18">
-        <v>4</v>
-      </c>
-      <c r="L18">
-        <v>0.64510000000000001</v>
-      </c>
-      <c r="M18">
-        <v>5</v>
-      </c>
-      <c r="N18">
-        <v>0.77669999999999995</v>
       </c>
       <c r="O18">
         <v>4</v>
       </c>
       <c r="P18">
-        <v>0.74329999999999996</v>
+        <v>0.64510000000000001</v>
       </c>
       <c r="Q18">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R18">
-        <v>0.77139999999999997</v>
+        <v>0.77669999999999995</v>
       </c>
       <c r="S18">
         <v>4</v>
       </c>
       <c r="T18">
-        <v>0.7913</v>
+        <v>0.74329999999999996</v>
       </c>
       <c r="U18">
         <v>4</v>
       </c>
       <c r="V18">
+        <v>0.77139999999999997</v>
+      </c>
+      <c r="W18">
+        <v>4</v>
+      </c>
+      <c r="X18">
+        <v>0.7913</v>
+      </c>
+      <c r="Y18">
+        <v>4</v>
+      </c>
+      <c r="Z18">
         <v>0.8044</v>
-      </c>
-      <c r="W18">
-        <v>7</v>
-      </c>
-      <c r="X18">
-        <v>1.0418000000000001</v>
-      </c>
-      <c r="Y18">
-        <v>7</v>
-      </c>
-      <c r="Z18">
-        <v>1.0455000000000001</v>
       </c>
       <c r="AA18">
         <v>7</v>
@@ -2494,31 +2698,43 @@
         <v>1.0418000000000001</v>
       </c>
       <c r="AC18">
+        <v>7</v>
+      </c>
+      <c r="AD18">
+        <v>1.0455000000000001</v>
+      </c>
+      <c r="AE18">
+        <v>7</v>
+      </c>
+      <c r="AF18">
+        <v>1.0418000000000001</v>
+      </c>
+      <c r="AG18">
         <v>5</v>
       </c>
-      <c r="AD18">
+      <c r="AH18">
         <v>0.85919999999999996</v>
       </c>
-      <c r="AE18">
+      <c r="AI18">
         <v>6</v>
       </c>
-      <c r="AF18">
+      <c r="AJ18">
         <v>0.90700000000000003</v>
       </c>
-      <c r="AG18">
+      <c r="AK18">
         <v>7</v>
       </c>
-      <c r="AH18">
+      <c r="AL18">
         <v>0.77470000000000006</v>
       </c>
-      <c r="AI18">
+      <c r="AM18">
         <v>7</v>
       </c>
-      <c r="AJ18">
+      <c r="AN18">
         <v>0.77470000000000006</v>
       </c>
     </row>
-    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>7</v>
       </c>
@@ -2526,109 +2742,121 @@
         <v>0.35339999999999999</v>
       </c>
       <c r="C19">
+        <v>7</v>
+      </c>
+      <c r="D19">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="E19">
+        <v>7</v>
+      </c>
+      <c r="F19">
+        <v>0.35339999999999999</v>
+      </c>
+      <c r="G19">
         <v>4</v>
       </c>
-      <c r="D19">
+      <c r="H19">
         <v>0.38169999999999998</v>
-      </c>
-      <c r="E19">
-        <v>5</v>
-      </c>
-      <c r="F19">
-        <v>0.48230000000000001</v>
-      </c>
-      <c r="G19">
-        <v>6</v>
-      </c>
-      <c r="H19">
-        <v>0.58699999999999997</v>
       </c>
       <c r="I19">
         <v>5</v>
       </c>
       <c r="J19">
+        <v>0.48230000000000001</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="M19">
+        <v>5</v>
+      </c>
+      <c r="N19">
         <v>0.64410000000000001</v>
-      </c>
-      <c r="K19">
-        <v>5</v>
-      </c>
-      <c r="L19">
-        <v>0.71779999999999999</v>
-      </c>
-      <c r="M19">
-        <v>6</v>
-      </c>
-      <c r="N19">
-        <v>0.84609999999999996</v>
       </c>
       <c r="O19">
         <v>5</v>
       </c>
       <c r="P19">
-        <v>0.81640000000000001</v>
+        <v>0.71779999999999999</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R19">
-        <v>0.84560000000000002</v>
+        <v>0.84609999999999996</v>
       </c>
       <c r="S19">
         <v>5</v>
       </c>
       <c r="T19">
-        <v>0.86670000000000003</v>
+        <v>0.81640000000000001</v>
       </c>
       <c r="U19">
         <v>5</v>
       </c>
       <c r="V19">
+        <v>0.84560000000000002</v>
+      </c>
+      <c r="W19">
+        <v>5</v>
+      </c>
+      <c r="X19">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="Y19">
+        <v>5</v>
+      </c>
+      <c r="Z19">
         <v>0.87960000000000005</v>
-      </c>
-      <c r="W19">
-        <v>8</v>
-      </c>
-      <c r="X19">
-        <v>1.1178999999999999</v>
-      </c>
-      <c r="Y19">
-        <v>8</v>
-      </c>
-      <c r="Z19">
-        <v>1.1229</v>
       </c>
       <c r="AA19">
         <v>8</v>
       </c>
       <c r="AB19">
+        <v>1.1178999999999999</v>
+      </c>
+      <c r="AC19">
+        <v>8</v>
+      </c>
+      <c r="AD19">
+        <v>1.1229</v>
+      </c>
+      <c r="AE19">
+        <v>8</v>
+      </c>
+      <c r="AF19">
         <v>1.1172</v>
       </c>
-      <c r="AC19">
+      <c r="AG19">
         <v>6</v>
       </c>
-      <c r="AD19">
+      <c r="AH19">
         <v>0.94430000000000003</v>
       </c>
-      <c r="AE19">
+      <c r="AI19">
         <v>7</v>
       </c>
-      <c r="AF19">
+      <c r="AJ19">
         <v>0.98619999999999997</v>
       </c>
-      <c r="AG19">
+      <c r="AK19">
         <v>8</v>
       </c>
-      <c r="AH19">
+      <c r="AL19">
         <v>0.81830000000000003</v>
       </c>
-      <c r="AI19">
+      <c r="AM19">
         <v>8</v>
       </c>
-      <c r="AJ19">
+      <c r="AN19">
         <v>0.81830000000000003</v>
       </c>
     </row>
-    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8</v>
       </c>
@@ -2636,109 +2864,121 @@
         <v>0.39340000000000003</v>
       </c>
       <c r="C20">
+        <v>8</v>
+      </c>
+      <c r="D20">
+        <v>0.39340000000000003</v>
+      </c>
+      <c r="E20">
+        <v>8</v>
+      </c>
+      <c r="F20">
+        <v>0.39340000000000003</v>
+      </c>
+      <c r="G20">
         <v>5</v>
       </c>
-      <c r="D20">
+      <c r="H20">
         <v>0.42149999999999999</v>
-      </c>
-      <c r="E20">
-        <v>6</v>
-      </c>
-      <c r="F20">
-        <v>0.5212</v>
-      </c>
-      <c r="G20">
-        <v>7</v>
-      </c>
-      <c r="H20">
-        <v>0.63160000000000005</v>
       </c>
       <c r="I20">
         <v>6</v>
       </c>
       <c r="J20">
+        <v>0.5212</v>
+      </c>
+      <c r="K20">
+        <v>7</v>
+      </c>
+      <c r="L20">
+        <v>0.63160000000000005</v>
+      </c>
+      <c r="M20">
+        <v>6</v>
+      </c>
+      <c r="N20">
         <v>0.69489999999999996</v>
-      </c>
-      <c r="K20">
-        <v>6</v>
-      </c>
-      <c r="L20">
-        <v>0.78900000000000003</v>
-      </c>
-      <c r="M20">
-        <v>7</v>
-      </c>
-      <c r="N20">
-        <v>0.91639999999999999</v>
       </c>
       <c r="O20">
         <v>6</v>
       </c>
       <c r="P20">
-        <v>0.88849999999999996</v>
+        <v>0.78900000000000003</v>
       </c>
       <c r="Q20">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R20">
-        <v>0.91900000000000004</v>
+        <v>0.91639999999999999</v>
       </c>
       <c r="S20">
         <v>6</v>
       </c>
       <c r="T20">
-        <v>0.94079999999999997</v>
+        <v>0.88849999999999996</v>
       </c>
       <c r="U20">
         <v>6</v>
       </c>
       <c r="V20">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="W20">
+        <v>6</v>
+      </c>
+      <c r="X20">
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="Y20">
+        <v>6</v>
+      </c>
+      <c r="Z20">
         <v>0.95450000000000002</v>
-      </c>
-      <c r="W20">
-        <v>9</v>
-      </c>
-      <c r="X20">
-        <v>1.1875</v>
-      </c>
-      <c r="Y20">
-        <v>9</v>
-      </c>
-      <c r="Z20">
-        <v>1.1901999999999999</v>
       </c>
       <c r="AA20">
         <v>9</v>
       </c>
       <c r="AB20">
+        <v>1.1875</v>
+      </c>
+      <c r="AC20">
+        <v>9</v>
+      </c>
+      <c r="AD20">
+        <v>1.1901999999999999</v>
+      </c>
+      <c r="AE20">
+        <v>9</v>
+      </c>
+      <c r="AF20">
         <v>1.1808000000000001</v>
       </c>
-      <c r="AC20">
+      <c r="AG20">
         <v>7</v>
       </c>
-      <c r="AD20">
+      <c r="AH20">
         <v>1.0242</v>
       </c>
-      <c r="AE20">
+      <c r="AI20">
         <v>8</v>
       </c>
-      <c r="AF20">
+      <c r="AJ20">
         <v>1.0561</v>
       </c>
-      <c r="AG20">
+      <c r="AK20">
         <v>9</v>
       </c>
-      <c r="AH20">
+      <c r="AL20">
         <v>0.85829999999999995</v>
       </c>
-      <c r="AI20">
+      <c r="AM20">
         <v>9</v>
       </c>
-      <c r="AJ20">
+      <c r="AN20">
         <v>0.85829999999999995</v>
       </c>
     </row>
-    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>9</v>
       </c>
@@ -2746,109 +2986,121 @@
         <v>0.44450000000000001</v>
       </c>
       <c r="C21">
+        <v>9</v>
+      </c>
+      <c r="D21">
+        <v>0.44450000000000001</v>
+      </c>
+      <c r="E21">
+        <v>9</v>
+      </c>
+      <c r="F21">
+        <v>0.44450000000000001</v>
+      </c>
+      <c r="G21">
         <v>6</v>
       </c>
-      <c r="D21">
+      <c r="H21">
         <v>0.46820000000000001</v>
-      </c>
-      <c r="E21">
-        <v>7</v>
-      </c>
-      <c r="F21">
-        <v>0.56399999999999995</v>
-      </c>
-      <c r="G21">
-        <v>8</v>
-      </c>
-      <c r="H21">
-        <v>0.66590000000000005</v>
       </c>
       <c r="I21">
         <v>7</v>
       </c>
       <c r="J21">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="K21">
+        <v>8</v>
+      </c>
+      <c r="L21">
+        <v>0.66590000000000005</v>
+      </c>
+      <c r="M21">
+        <v>7</v>
+      </c>
+      <c r="N21">
         <v>0.75649999999999995</v>
-      </c>
-      <c r="K21">
-        <v>7</v>
-      </c>
-      <c r="L21">
-        <v>0.85</v>
-      </c>
-      <c r="M21">
-        <v>8</v>
-      </c>
-      <c r="N21">
-        <v>0.97789999999999999</v>
       </c>
       <c r="O21">
         <v>7</v>
       </c>
       <c r="P21">
-        <v>0.96079999999999999</v>
+        <v>0.85</v>
       </c>
       <c r="Q21">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R21">
-        <v>0.99029999999999996</v>
+        <v>0.97789999999999999</v>
       </c>
       <c r="S21">
         <v>7</v>
       </c>
       <c r="T21">
-        <v>1.0144</v>
+        <v>0.96079999999999999</v>
       </c>
       <c r="U21">
         <v>7</v>
       </c>
       <c r="V21">
+        <v>0.99029999999999996</v>
+      </c>
+      <c r="W21">
+        <v>7</v>
+      </c>
+      <c r="X21">
+        <v>1.0144</v>
+      </c>
+      <c r="Y21">
+        <v>7</v>
+      </c>
+      <c r="Z21">
         <v>1.0305</v>
-      </c>
-      <c r="W21">
-        <v>10</v>
-      </c>
-      <c r="X21">
-        <v>1.2463</v>
-      </c>
-      <c r="Y21">
-        <v>10</v>
-      </c>
-      <c r="Z21">
-        <v>1.2383</v>
       </c>
       <c r="AA21">
         <v>10</v>
       </c>
       <c r="AB21">
+        <v>1.2463</v>
+      </c>
+      <c r="AC21">
+        <v>10</v>
+      </c>
+      <c r="AD21">
+        <v>1.2383</v>
+      </c>
+      <c r="AE21">
+        <v>10</v>
+      </c>
+      <c r="AF21">
         <v>1.2235</v>
       </c>
-      <c r="AC21">
+      <c r="AG21">
         <v>8</v>
       </c>
-      <c r="AD21">
+      <c r="AH21">
         <v>1.0987</v>
       </c>
-      <c r="AE21">
+      <c r="AI21">
         <v>9</v>
       </c>
-      <c r="AF21">
+      <c r="AJ21">
         <v>1.1138999999999999</v>
       </c>
-      <c r="AG21">
+      <c r="AK21">
         <v>10</v>
       </c>
-      <c r="AH21">
+      <c r="AL21">
         <v>0.88870000000000005</v>
       </c>
-      <c r="AI21">
+      <c r="AM21">
         <v>10</v>
       </c>
-      <c r="AJ21">
+      <c r="AN21">
         <v>0.88870000000000005</v>
       </c>
     </row>
-    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>10</v>
       </c>
@@ -2856,109 +3108,121 @@
         <v>0.46479999999999999</v>
       </c>
       <c r="C22">
+        <v>10</v>
+      </c>
+      <c r="D22">
+        <v>0.46479999999999999</v>
+      </c>
+      <c r="E22">
+        <v>10</v>
+      </c>
+      <c r="F22">
+        <v>0.46479999999999999</v>
+      </c>
+      <c r="G22">
         <v>7</v>
       </c>
-      <c r="D22">
+      <c r="H22">
         <v>0.51049999999999995</v>
-      </c>
-      <c r="E22">
-        <v>8</v>
-      </c>
-      <c r="F22">
-        <v>0.59750000000000003</v>
-      </c>
-      <c r="G22">
-        <v>9</v>
-      </c>
-      <c r="H22">
-        <v>0.69089999999999996</v>
       </c>
       <c r="I22">
         <v>8</v>
       </c>
       <c r="J22">
+        <v>0.59750000000000003</v>
+      </c>
+      <c r="K22">
+        <v>9</v>
+      </c>
+      <c r="L22">
+        <v>0.69089999999999996</v>
+      </c>
+      <c r="M22">
+        <v>8</v>
+      </c>
+      <c r="N22">
         <v>0.80710000000000004</v>
-      </c>
-      <c r="K22">
-        <v>8</v>
-      </c>
-      <c r="L22">
-        <v>0.90490000000000004</v>
-      </c>
-      <c r="M22">
-        <v>9</v>
-      </c>
-      <c r="N22">
-        <v>1.0357000000000001</v>
       </c>
       <c r="O22">
         <v>8</v>
       </c>
       <c r="P22">
-        <v>1.0288999999999999</v>
+        <v>0.90490000000000004</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R22">
-        <v>1.0626</v>
+        <v>1.0357000000000001</v>
       </c>
       <c r="S22">
         <v>8</v>
       </c>
       <c r="T22">
-        <v>1.0891</v>
+        <v>1.0288999999999999</v>
       </c>
       <c r="U22">
         <v>8</v>
       </c>
       <c r="V22">
+        <v>1.0626</v>
+      </c>
+      <c r="W22">
+        <v>8</v>
+      </c>
+      <c r="X22">
+        <v>1.0891</v>
+      </c>
+      <c r="Y22">
+        <v>8</v>
+      </c>
+      <c r="Z22">
         <v>1.1057999999999999</v>
-      </c>
-      <c r="W22">
-        <v>11</v>
-      </c>
-      <c r="X22">
-        <v>1.2770999999999999</v>
-      </c>
-      <c r="Y22">
-        <v>11</v>
-      </c>
-      <c r="Z22">
-        <v>1.2722</v>
       </c>
       <c r="AA22">
         <v>11</v>
       </c>
       <c r="AB22">
+        <v>1.2770999999999999</v>
+      </c>
+      <c r="AC22">
+        <v>11</v>
+      </c>
+      <c r="AD22">
+        <v>1.2722</v>
+      </c>
+      <c r="AE22">
+        <v>11</v>
+      </c>
+      <c r="AF22">
         <v>1.2553000000000001</v>
       </c>
-      <c r="AC22">
+      <c r="AG22">
         <v>9</v>
       </c>
-      <c r="AD22">
+      <c r="AH22">
         <v>1.1587000000000001</v>
       </c>
-      <c r="AE22">
+      <c r="AI22">
         <v>10</v>
       </c>
-      <c r="AF22">
+      <c r="AJ22">
         <v>1.143</v>
       </c>
-      <c r="AG22">
+      <c r="AK22">
         <v>11</v>
       </c>
-      <c r="AH22">
+      <c r="AL22">
         <v>0.90480000000000005</v>
       </c>
-      <c r="AI22">
+      <c r="AM22">
         <v>11</v>
       </c>
-      <c r="AJ22">
+      <c r="AN22">
         <v>0.90480000000000005</v>
       </c>
     </row>
-    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>11</v>
       </c>
@@ -2966,109 +3230,121 @@
         <v>0.49909999999999999</v>
       </c>
       <c r="C23">
+        <v>11</v>
+      </c>
+      <c r="D23">
+        <v>0.49909999999999999</v>
+      </c>
+      <c r="E23">
+        <v>11</v>
+      </c>
+      <c r="F23">
+        <v>0.49909999999999999</v>
+      </c>
+      <c r="G23">
         <v>8</v>
       </c>
-      <c r="D23">
+      <c r="H23">
         <v>0.54600000000000004</v>
-      </c>
-      <c r="E23">
-        <v>9</v>
-      </c>
-      <c r="F23">
-        <v>0.62880000000000003</v>
-      </c>
-      <c r="G23">
-        <v>10</v>
-      </c>
-      <c r="H23">
-        <v>0.71360000000000001</v>
       </c>
       <c r="I23">
         <v>9</v>
       </c>
       <c r="J23">
+        <v>0.62880000000000003</v>
+      </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
+      <c r="L23">
+        <v>0.71360000000000001</v>
+      </c>
+      <c r="M23">
+        <v>9</v>
+      </c>
+      <c r="N23">
         <v>0.84240000000000004</v>
-      </c>
-      <c r="K23">
-        <v>9</v>
-      </c>
-      <c r="L23">
-        <v>0.94940000000000002</v>
-      </c>
-      <c r="M23">
-        <v>10</v>
-      </c>
-      <c r="N23">
-        <v>1.0871</v>
       </c>
       <c r="O23">
         <v>9</v>
       </c>
       <c r="P23">
-        <v>1.0959000000000001</v>
+        <v>0.94940000000000002</v>
       </c>
       <c r="Q23">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R23">
-        <v>1.1314</v>
+        <v>1.0871</v>
       </c>
       <c r="S23">
         <v>9</v>
       </c>
       <c r="T23">
-        <v>1.1599999999999999</v>
+        <v>1.0959000000000001</v>
       </c>
       <c r="U23">
         <v>9</v>
       </c>
       <c r="V23">
+        <v>1.1314</v>
+      </c>
+      <c r="W23">
+        <v>9</v>
+      </c>
+      <c r="X23">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="Y23">
+        <v>9</v>
+      </c>
+      <c r="Z23">
         <v>1.1768000000000001</v>
-      </c>
-      <c r="W23">
-        <v>12</v>
-      </c>
-      <c r="X23">
-        <v>1.2975000000000001</v>
-      </c>
-      <c r="Y23">
-        <v>12</v>
-      </c>
-      <c r="Z23">
-        <v>1.2903</v>
       </c>
       <c r="AA23">
         <v>12</v>
       </c>
       <c r="AB23">
+        <v>1.2975000000000001</v>
+      </c>
+      <c r="AC23">
+        <v>12</v>
+      </c>
+      <c r="AD23">
+        <v>1.2903</v>
+      </c>
+      <c r="AE23">
+        <v>12</v>
+      </c>
+      <c r="AF23">
         <v>1.2685999999999999</v>
       </c>
-      <c r="AC23">
+      <c r="AG23">
         <v>10</v>
       </c>
-      <c r="AD23">
+      <c r="AH23">
         <v>1.1954</v>
       </c>
-      <c r="AE23">
+      <c r="AI23">
         <v>11</v>
       </c>
-      <c r="AF23">
+      <c r="AJ23">
         <v>1.1551</v>
       </c>
-      <c r="AG23">
+      <c r="AK23">
         <v>12</v>
       </c>
-      <c r="AH23">
+      <c r="AL23">
         <v>0.90629999999999999</v>
       </c>
-      <c r="AI23">
+      <c r="AM23">
         <v>12</v>
       </c>
-      <c r="AJ23">
+      <c r="AN23">
         <v>0.90629999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>12</v>
       </c>
@@ -3076,109 +3352,121 @@
         <v>0.54569999999999996</v>
       </c>
       <c r="C24">
+        <v>12</v>
+      </c>
+      <c r="D24">
+        <v>0.54569999999999996</v>
+      </c>
+      <c r="E24">
+        <v>12</v>
+      </c>
+      <c r="F24">
+        <v>0.54569999999999996</v>
+      </c>
+      <c r="G24">
         <v>9</v>
       </c>
-      <c r="D24">
+      <c r="H24">
         <v>0.5847</v>
-      </c>
-      <c r="E24">
-        <v>10</v>
-      </c>
-      <c r="F24">
-        <v>0.67010000000000003</v>
-      </c>
-      <c r="G24">
-        <v>11</v>
-      </c>
-      <c r="H24">
-        <v>0.74260000000000004</v>
       </c>
       <c r="I24">
         <v>10</v>
       </c>
       <c r="J24">
+        <v>0.67010000000000003</v>
+      </c>
+      <c r="K24">
+        <v>11</v>
+      </c>
+      <c r="L24">
+        <v>0.74260000000000004</v>
+      </c>
+      <c r="M24">
+        <v>10</v>
+      </c>
+      <c r="N24">
         <v>0.8579</v>
-      </c>
-      <c r="K24">
-        <v>10</v>
-      </c>
-      <c r="L24">
-        <v>0.97160000000000002</v>
-      </c>
-      <c r="M24">
-        <v>11</v>
-      </c>
-      <c r="N24">
-        <v>1.133</v>
       </c>
       <c r="O24">
         <v>10</v>
       </c>
       <c r="P24">
-        <v>1.1545000000000001</v>
+        <v>0.97160000000000002</v>
       </c>
       <c r="Q24">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R24">
-        <v>1.1918</v>
+        <v>1.133</v>
       </c>
       <c r="S24">
         <v>10</v>
       </c>
       <c r="T24">
-        <v>1.2224999999999999</v>
+        <v>1.1545000000000001</v>
       </c>
       <c r="U24">
         <v>10</v>
       </c>
       <c r="V24">
+        <v>1.1918</v>
+      </c>
+      <c r="W24">
+        <v>10</v>
+      </c>
+      <c r="X24">
+        <v>1.2224999999999999</v>
+      </c>
+      <c r="Y24">
+        <v>10</v>
+      </c>
+      <c r="Z24">
         <v>1.2387999999999999</v>
-      </c>
-      <c r="W24">
-        <v>13</v>
-      </c>
-      <c r="X24">
-        <v>1.2968</v>
-      </c>
-      <c r="Y24">
-        <v>13</v>
-      </c>
-      <c r="Z24">
-        <v>1.2879</v>
       </c>
       <c r="AA24">
         <v>13</v>
       </c>
       <c r="AB24">
+        <v>1.2968</v>
+      </c>
+      <c r="AC24">
+        <v>13</v>
+      </c>
+      <c r="AD24">
+        <v>1.2879</v>
+      </c>
+      <c r="AE24">
+        <v>13</v>
+      </c>
+      <c r="AF24">
         <v>1.2635000000000001</v>
       </c>
-      <c r="AC24">
+      <c r="AG24">
         <v>11</v>
       </c>
-      <c r="AD24">
+      <c r="AH24">
         <v>1.2208000000000001</v>
       </c>
-      <c r="AE24">
+      <c r="AI24">
         <v>12</v>
       </c>
-      <c r="AF24">
+      <c r="AJ24">
         <v>1.1545000000000001</v>
       </c>
-      <c r="AG24">
+      <c r="AK24">
         <v>13</v>
       </c>
-      <c r="AH24">
+      <c r="AL24">
         <v>0.90610000000000002</v>
       </c>
-      <c r="AI24">
+      <c r="AM24">
         <v>13</v>
       </c>
-      <c r="AJ24">
+      <c r="AN24">
         <v>0.90610000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>13</v>
       </c>
@@ -3186,85 +3474,97 @@
         <v>0.5696</v>
       </c>
       <c r="C25">
+        <v>13</v>
+      </c>
+      <c r="D25">
+        <v>0.5696</v>
+      </c>
+      <c r="E25">
+        <v>13</v>
+      </c>
+      <c r="F25">
+        <v>0.5696</v>
+      </c>
+      <c r="G25">
         <v>10</v>
       </c>
-      <c r="D25">
+      <c r="H25">
         <v>0.63360000000000005</v>
       </c>
-      <c r="E25">
+      <c r="I25">
         <v>11</v>
       </c>
-      <c r="F25">
+      <c r="J25">
         <v>0.70250000000000001</v>
       </c>
-      <c r="G25">
+      <c r="K25">
         <v>12</v>
       </c>
-      <c r="H25">
+      <c r="L25">
         <v>0.78459999999999996</v>
       </c>
-      <c r="M25">
+      <c r="Q25">
         <v>12</v>
       </c>
-      <c r="N25">
+      <c r="R25">
         <v>1.1394</v>
-      </c>
-      <c r="O25">
-        <v>11</v>
-      </c>
-      <c r="P25">
-        <v>1.1940999999999999</v>
-      </c>
-      <c r="Q25">
-        <v>11</v>
-      </c>
-      <c r="R25">
-        <v>1.2378</v>
       </c>
       <c r="S25">
         <v>11</v>
       </c>
       <c r="T25">
-        <v>1.2725</v>
+        <v>1.1940999999999999</v>
       </c>
       <c r="U25">
         <v>11</v>
       </c>
       <c r="V25">
+        <v>1.2378</v>
+      </c>
+      <c r="W25">
+        <v>11</v>
+      </c>
+      <c r="X25">
+        <v>1.2725</v>
+      </c>
+      <c r="Y25">
+        <v>11</v>
+      </c>
+      <c r="Z25">
         <v>1.2790999999999999</v>
-      </c>
-      <c r="W25">
-        <v>14</v>
-      </c>
-      <c r="X25">
-        <v>1.2763</v>
-      </c>
-      <c r="Y25">
-        <v>14</v>
-      </c>
-      <c r="Z25">
-        <v>1.2692000000000001</v>
       </c>
       <c r="AA25">
         <v>14</v>
       </c>
       <c r="AB25">
+        <v>1.2763</v>
+      </c>
+      <c r="AC25">
+        <v>14</v>
+      </c>
+      <c r="AD25">
+        <v>1.2692000000000001</v>
+      </c>
+      <c r="AE25">
+        <v>14</v>
+      </c>
+      <c r="AF25">
         <v>1.2459</v>
       </c>
-      <c r="AC25">
+      <c r="AG25">
         <v>12</v>
       </c>
-      <c r="AD25">
+      <c r="AH25">
         <v>1.2283999999999999</v>
       </c>
-      <c r="AE25">
+      <c r="AI25">
         <v>13</v>
       </c>
-      <c r="AF25">
+      <c r="AJ25">
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>14</v>
       </c>
@@ -3272,79 +3572,91 @@
         <v>0.60740000000000005</v>
       </c>
       <c r="C26">
+        <v>14</v>
+      </c>
+      <c r="D26">
+        <v>0.60740000000000005</v>
+      </c>
+      <c r="E26">
+        <v>14</v>
+      </c>
+      <c r="F26">
+        <v>0.60740000000000005</v>
+      </c>
+      <c r="G26">
         <v>11</v>
       </c>
-      <c r="D26">
+      <c r="H26">
         <v>0.65349999999999997</v>
       </c>
-      <c r="E26">
+      <c r="I26">
         <v>12</v>
       </c>
-      <c r="F26">
+      <c r="J26">
         <v>0.72289999999999999</v>
       </c>
-      <c r="G26">
+      <c r="K26">
         <v>13</v>
       </c>
-      <c r="H26">
+      <c r="L26">
         <v>0.80269999999999997</v>
-      </c>
-      <c r="O26">
-        <v>12</v>
-      </c>
-      <c r="P26">
-        <v>1.2119</v>
-      </c>
-      <c r="Q26">
-        <v>12</v>
-      </c>
-      <c r="R26">
-        <v>1.2644</v>
       </c>
       <c r="S26">
         <v>12</v>
       </c>
       <c r="T26">
-        <v>1.2856000000000001</v>
+        <v>1.2119</v>
       </c>
       <c r="U26">
         <v>12</v>
       </c>
       <c r="V26">
+        <v>1.2644</v>
+      </c>
+      <c r="W26">
+        <v>12</v>
+      </c>
+      <c r="X26">
+        <v>1.2856000000000001</v>
+      </c>
+      <c r="Y26">
+        <v>12</v>
+      </c>
+      <c r="Z26">
         <v>1.2956000000000001</v>
-      </c>
-      <c r="W26">
-        <v>15</v>
-      </c>
-      <c r="X26">
-        <v>1.2471000000000001</v>
-      </c>
-      <c r="Y26">
-        <v>15</v>
-      </c>
-      <c r="Z26">
-        <v>1.2447999999999999</v>
       </c>
       <c r="AA26">
         <v>15</v>
       </c>
       <c r="AB26">
+        <v>1.2471000000000001</v>
+      </c>
+      <c r="AC26">
+        <v>15</v>
+      </c>
+      <c r="AD26">
+        <v>1.2447999999999999</v>
+      </c>
+      <c r="AE26">
+        <v>15</v>
+      </c>
+      <c r="AF26">
         <v>1.2233000000000001</v>
       </c>
-      <c r="AC26">
+      <c r="AG26">
         <v>13</v>
       </c>
-      <c r="AD26">
+      <c r="AH26">
         <v>1.2208000000000001</v>
       </c>
-      <c r="AE26">
+      <c r="AI26">
         <v>14</v>
       </c>
-      <c r="AF26">
+      <c r="AJ26">
         <v>1.1161000000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>15</v>
       </c>
@@ -3352,79 +3664,91 @@
         <v>0.65100000000000002</v>
       </c>
       <c r="C27">
+        <v>15</v>
+      </c>
+      <c r="D27">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="E27">
+        <v>15</v>
+      </c>
+      <c r="F27">
+        <v>0.65100000000000002</v>
+      </c>
+      <c r="G27">
         <v>12</v>
       </c>
-      <c r="D27">
+      <c r="H27">
         <v>0.68540000000000001</v>
       </c>
-      <c r="E27">
+      <c r="I27">
         <v>13</v>
       </c>
-      <c r="F27">
+      <c r="J27">
         <v>0.75270000000000004</v>
       </c>
-      <c r="G27">
+      <c r="K27">
         <v>14</v>
       </c>
-      <c r="H27">
+      <c r="L27">
         <v>0.82640000000000002</v>
-      </c>
-      <c r="O27">
-        <v>13</v>
-      </c>
-      <c r="P27">
-        <v>1.2094</v>
-      </c>
-      <c r="Q27">
-        <v>13</v>
-      </c>
-      <c r="R27">
-        <v>1.2531000000000001</v>
       </c>
       <c r="S27">
         <v>13</v>
       </c>
       <c r="T27">
-        <v>1.2805</v>
+        <v>1.2094</v>
       </c>
       <c r="U27">
         <v>13</v>
       </c>
       <c r="V27">
+        <v>1.2531000000000001</v>
+      </c>
+      <c r="W27">
+        <v>13</v>
+      </c>
+      <c r="X27">
+        <v>1.2805</v>
+      </c>
+      <c r="Y27">
+        <v>13</v>
+      </c>
+      <c r="Z27">
         <v>1.2916000000000001</v>
-      </c>
-      <c r="W27">
-        <v>16</v>
-      </c>
-      <c r="X27">
-        <v>1.2214</v>
-      </c>
-      <c r="Y27">
-        <v>16</v>
-      </c>
-      <c r="Z27">
-        <v>1.2219</v>
       </c>
       <c r="AA27">
         <v>16</v>
       </c>
       <c r="AB27">
+        <v>1.2214</v>
+      </c>
+      <c r="AC27">
+        <v>16</v>
+      </c>
+      <c r="AD27">
+        <v>1.2219</v>
+      </c>
+      <c r="AE27">
+        <v>16</v>
+      </c>
+      <c r="AF27">
         <v>1.2037</v>
       </c>
-      <c r="AC27">
+      <c r="AG27">
         <v>14</v>
       </c>
-      <c r="AD27">
+      <c r="AH27">
         <v>1.2044999999999999</v>
       </c>
-      <c r="AE27">
+      <c r="AI27">
         <v>15</v>
       </c>
-      <c r="AF27">
+      <c r="AJ27">
         <v>1.1006</v>
       </c>
     </row>
-    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>16</v>
       </c>
@@ -3432,67 +3756,79 @@
         <v>0.67749999999999999</v>
       </c>
       <c r="C28">
+        <v>16</v>
+      </c>
+      <c r="D28">
+        <v>0.67749999999999999</v>
+      </c>
+      <c r="E28">
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>0.67749999999999999</v>
+      </c>
+      <c r="G28">
         <v>13</v>
       </c>
-      <c r="D28">
+      <c r="H28">
         <v>0.74050000000000005</v>
       </c>
-      <c r="E28">
+      <c r="I28">
         <v>14</v>
       </c>
-      <c r="F28">
+      <c r="J28">
         <v>0.79169999999999996</v>
       </c>
-      <c r="G28">
+      <c r="K28">
         <v>15</v>
       </c>
-      <c r="H28">
+      <c r="L28">
         <v>0.85440000000000005</v>
-      </c>
-      <c r="O28">
-        <v>14</v>
-      </c>
-      <c r="P28">
-        <v>1.1131</v>
-      </c>
-      <c r="Q28">
-        <v>14</v>
-      </c>
-      <c r="R28">
-        <v>1.1963999999999999</v>
       </c>
       <c r="S28">
         <v>14</v>
       </c>
       <c r="T28">
-        <v>1.2332000000000001</v>
+        <v>1.1131</v>
       </c>
       <c r="U28">
         <v>14</v>
       </c>
       <c r="V28">
+        <v>1.1963999999999999</v>
+      </c>
+      <c r="W28">
+        <v>14</v>
+      </c>
+      <c r="X28">
+        <v>1.2332000000000001</v>
+      </c>
+      <c r="Y28">
+        <v>14</v>
+      </c>
+      <c r="Z28">
         <v>1.2642</v>
       </c>
-      <c r="AA28">
+      <c r="AE28">
         <v>17</v>
       </c>
-      <c r="AB28">
+      <c r="AF28">
         <v>1.1809000000000001</v>
       </c>
-      <c r="AC28">
+      <c r="AG28">
         <v>15</v>
       </c>
-      <c r="AD28">
+      <c r="AH28">
         <v>1.1825000000000001</v>
       </c>
-      <c r="AE28">
+      <c r="AI28">
         <v>16</v>
       </c>
-      <c r="AF28">
+      <c r="AJ28">
         <v>1.0403</v>
       </c>
     </row>
-    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>17</v>
       </c>
@@ -3500,55 +3836,67 @@
         <v>0.70979999999999999</v>
       </c>
       <c r="C29">
+        <v>17</v>
+      </c>
+      <c r="D29">
+        <v>0.70979999999999999</v>
+      </c>
+      <c r="E29">
+        <v>17</v>
+      </c>
+      <c r="F29">
+        <v>0.70979999999999999</v>
+      </c>
+      <c r="G29">
         <v>14</v>
       </c>
-      <c r="D29">
+      <c r="H29">
         <v>0.76370000000000005</v>
       </c>
-      <c r="E29">
+      <c r="I29">
         <v>15</v>
       </c>
-      <c r="F29">
+      <c r="J29">
         <v>0.83579999999999999</v>
       </c>
-      <c r="G29">
+      <c r="K29">
         <v>16</v>
       </c>
-      <c r="H29">
+      <c r="L29">
         <v>0.88490000000000002</v>
-      </c>
-      <c r="O29">
-        <v>15</v>
-      </c>
-      <c r="P29">
-        <v>1.0755999999999999</v>
       </c>
       <c r="S29">
         <v>15</v>
       </c>
       <c r="T29">
+        <v>1.0755999999999999</v>
+      </c>
+      <c r="W29">
+        <v>15</v>
+      </c>
+      <c r="X29">
         <v>1.1725000000000001</v>
       </c>
-      <c r="U29">
+      <c r="Y29">
         <v>15</v>
       </c>
-      <c r="V29">
+      <c r="Z29">
         <v>1.2219</v>
       </c>
-      <c r="AC29">
+      <c r="AG29">
         <v>16</v>
       </c>
-      <c r="AD29">
+      <c r="AH29">
         <v>1.1566000000000001</v>
       </c>
-      <c r="AE29">
+      <c r="AI29">
         <v>17</v>
       </c>
-      <c r="AF29">
+      <c r="AJ29">
         <v>1.0221</v>
       </c>
     </row>
-    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>18</v>
       </c>
@@ -3556,37 +3904,49 @@
         <v>0.74429999999999996</v>
       </c>
       <c r="C30">
+        <v>18</v>
+      </c>
+      <c r="D30">
+        <v>0.74429999999999996</v>
+      </c>
+      <c r="E30">
+        <v>18</v>
+      </c>
+      <c r="F30">
+        <v>0.74429999999999996</v>
+      </c>
+      <c r="G30">
         <v>15</v>
       </c>
-      <c r="D30">
+      <c r="H30">
         <v>0.79379999999999995</v>
       </c>
-      <c r="E30">
+      <c r="I30">
         <v>16</v>
       </c>
-      <c r="F30">
+      <c r="J30">
         <v>0.86439999999999995</v>
       </c>
-      <c r="G30">
+      <c r="K30">
         <v>17</v>
       </c>
-      <c r="H30">
+      <c r="L30">
         <v>0.91749999999999998</v>
       </c>
-      <c r="O30">
+      <c r="S30">
         <v>16</v>
       </c>
-      <c r="P30">
+      <c r="T30">
         <v>1.0674999999999999</v>
       </c>
-      <c r="AC30">
+      <c r="AG30">
         <v>17</v>
       </c>
-      <c r="AD30">
+      <c r="AH30">
         <v>1.1127</v>
       </c>
     </row>
-    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>19</v>
       </c>
@@ -3594,31 +3954,43 @@
         <v>0.77869999999999995</v>
       </c>
       <c r="C31">
+        <v>19</v>
+      </c>
+      <c r="D31">
+        <v>0.77869999999999995</v>
+      </c>
+      <c r="E31">
+        <v>19</v>
+      </c>
+      <c r="F31">
+        <v>0.77869999999999995</v>
+      </c>
+      <c r="G31">
         <v>16</v>
       </c>
-      <c r="D31">
+      <c r="H31">
         <v>0.82799999999999996</v>
       </c>
-      <c r="E31">
+      <c r="I31">
         <v>17</v>
       </c>
-      <c r="F31">
+      <c r="J31">
         <v>0.8962</v>
       </c>
-      <c r="G31">
+      <c r="K31">
         <v>18</v>
       </c>
-      <c r="H31">
+      <c r="L31">
         <v>0.95279999999999998</v>
       </c>
-      <c r="O31">
+      <c r="S31">
         <v>17</v>
       </c>
-      <c r="P31">
+      <c r="T31">
         <v>1.0688</v>
       </c>
     </row>
-    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:40" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>20</v>
       </c>
@@ -3626,31 +3998,43 @@
         <v>0.8115</v>
       </c>
       <c r="C32">
+        <v>20</v>
+      </c>
+      <c r="D32">
+        <v>0.8115</v>
+      </c>
+      <c r="E32">
+        <v>20</v>
+      </c>
+      <c r="F32">
+        <v>0.8115</v>
+      </c>
+      <c r="G32">
         <v>17</v>
       </c>
-      <c r="D32">
+      <c r="H32">
         <v>0.86339999999999995</v>
       </c>
-      <c r="E32">
+      <c r="I32">
         <v>19</v>
       </c>
-      <c r="F32">
+      <c r="J32">
         <v>0.95489999999999997</v>
       </c>
-      <c r="G32">
+      <c r="K32">
         <v>19</v>
       </c>
-      <c r="H32">
+      <c r="L32">
         <v>0.97399999999999998</v>
       </c>
-      <c r="O32">
+      <c r="S32">
         <v>18</v>
       </c>
-      <c r="P32">
+      <c r="T32">
         <v>1.0831999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>21</v>
       </c>
@@ -3658,25 +4042,37 @@
         <v>0.84260000000000002</v>
       </c>
       <c r="C33">
+        <v>21</v>
+      </c>
+      <c r="D33">
+        <v>0.84260000000000002</v>
+      </c>
+      <c r="E33">
+        <v>21</v>
+      </c>
+      <c r="F33">
+        <v>0.84260000000000002</v>
+      </c>
+      <c r="G33">
         <v>18</v>
       </c>
-      <c r="D33">
+      <c r="H33">
         <v>0.89800000000000002</v>
       </c>
-      <c r="E33">
+      <c r="I33">
         <v>20</v>
       </c>
-      <c r="F33">
+      <c r="J33">
         <v>0.98380000000000001</v>
       </c>
-      <c r="G33">
+      <c r="K33">
         <v>20</v>
       </c>
-      <c r="H33">
+      <c r="L33">
         <v>1.0044999999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>22</v>
       </c>
@@ -3684,25 +4080,37 @@
         <v>0.87439999999999996</v>
       </c>
       <c r="C34">
+        <v>22</v>
+      </c>
+      <c r="D34">
+        <v>0.87439999999999996</v>
+      </c>
+      <c r="E34">
+        <v>22</v>
+      </c>
+      <c r="F34">
+        <v>0.87439999999999996</v>
+      </c>
+      <c r="G34">
         <v>19</v>
       </c>
-      <c r="D34">
+      <c r="H34">
         <v>0.93149999999999999</v>
       </c>
-      <c r="E34">
+      <c r="I34">
         <v>21</v>
       </c>
-      <c r="F34">
+      <c r="J34">
         <v>1.0170999999999999</v>
       </c>
-      <c r="G34">
+      <c r="K34">
         <v>21</v>
       </c>
-      <c r="H34">
+      <c r="L34">
         <v>1.0371999999999999</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>23</v>
       </c>
@@ -3710,25 +4118,37 @@
         <v>0.90539999999999998</v>
       </c>
       <c r="C35">
+        <v>23</v>
+      </c>
+      <c r="D35">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="E35">
+        <v>23</v>
+      </c>
+      <c r="F35">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="G35">
         <v>20</v>
       </c>
-      <c r="D35">
+      <c r="H35">
         <v>0.96579999999999999</v>
       </c>
-      <c r="E35">
+      <c r="I35">
         <v>22</v>
       </c>
-      <c r="F35">
+      <c r="J35">
         <v>1.0497000000000001</v>
       </c>
-      <c r="G35">
+      <c r="K35">
         <v>22</v>
       </c>
-      <c r="H35">
+      <c r="L35">
         <v>1.0676000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>24</v>
       </c>
@@ -3736,25 +4156,37 @@
         <v>0.9345</v>
       </c>
       <c r="C36">
+        <v>24</v>
+      </c>
+      <c r="D36">
+        <v>0.9345</v>
+      </c>
+      <c r="E36">
+        <v>24</v>
+      </c>
+      <c r="F36">
+        <v>0.9345</v>
+      </c>
+      <c r="G36">
         <v>21</v>
       </c>
-      <c r="D36">
+      <c r="H36">
         <v>1.0018</v>
       </c>
-      <c r="E36">
+      <c r="I36">
         <v>23</v>
       </c>
-      <c r="F36">
+      <c r="J36">
         <v>1.0791999999999999</v>
       </c>
-      <c r="G36">
+      <c r="K36">
         <v>23</v>
       </c>
-      <c r="H36">
+      <c r="L36">
         <v>1.0940000000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>25</v>
       </c>
@@ -3762,25 +4194,37 @@
         <v>0.96079999999999999</v>
       </c>
       <c r="C37">
+        <v>25</v>
+      </c>
+      <c r="D37">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="E37">
+        <v>25</v>
+      </c>
+      <c r="F37">
+        <v>0.96079999999999999</v>
+      </c>
+      <c r="G37">
         <v>22</v>
       </c>
-      <c r="D37">
+      <c r="H37">
         <v>1.0370999999999999</v>
       </c>
-      <c r="E37">
+      <c r="I37">
         <v>24</v>
       </c>
-      <c r="F37">
+      <c r="J37">
         <v>1.1051</v>
       </c>
-      <c r="G37">
+      <c r="K37">
         <v>24</v>
       </c>
-      <c r="H37">
+      <c r="L37">
         <v>1.1173</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>26</v>
       </c>
@@ -3788,25 +4232,37 @@
         <v>0.98570000000000002</v>
       </c>
       <c r="C38">
+        <v>26</v>
+      </c>
+      <c r="D38">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="E38">
+        <v>26</v>
+      </c>
+      <c r="F38">
+        <v>0.98570000000000002</v>
+      </c>
+      <c r="G38">
         <v>23</v>
       </c>
-      <c r="D38">
+      <c r="H38">
         <v>1.0692999999999999</v>
       </c>
-      <c r="E38">
+      <c r="I38">
         <v>25</v>
       </c>
-      <c r="F38">
+      <c r="J38">
         <v>1.1291</v>
       </c>
-      <c r="G38">
+      <c r="K38">
         <v>25</v>
       </c>
-      <c r="H38">
+      <c r="L38">
         <v>1.1405000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>27</v>
       </c>
@@ -3814,25 +4270,37 @@
         <v>1.0128999999999999</v>
       </c>
       <c r="C39">
+        <v>27</v>
+      </c>
+      <c r="D39">
+        <v>1.0128999999999999</v>
+      </c>
+      <c r="E39">
+        <v>27</v>
+      </c>
+      <c r="F39">
+        <v>1.0128999999999999</v>
+      </c>
+      <c r="G39">
         <v>24</v>
       </c>
-      <c r="D39">
+      <c r="H39">
         <v>1.0974999999999999</v>
       </c>
-      <c r="E39">
+      <c r="I39">
         <v>26</v>
       </c>
-      <c r="F39">
+      <c r="J39">
         <v>1.1553</v>
       </c>
-      <c r="G39">
+      <c r="K39">
         <v>26</v>
       </c>
-      <c r="H39">
+      <c r="L39">
         <v>1.1682999999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>28</v>
       </c>
@@ -3840,25 +4308,37 @@
         <v>1.0373000000000001</v>
       </c>
       <c r="C40">
+        <v>28</v>
+      </c>
+      <c r="D40">
+        <v>1.0373000000000001</v>
+      </c>
+      <c r="E40">
+        <v>28</v>
+      </c>
+      <c r="F40">
+        <v>1.0373000000000001</v>
+      </c>
+      <c r="G40">
         <v>25</v>
       </c>
-      <c r="D40">
+      <c r="H40">
         <v>1.1218999999999999</v>
       </c>
-      <c r="E40">
+      <c r="I40">
         <v>27</v>
       </c>
-      <c r="F40">
+      <c r="J40">
         <v>1.1859999999999999</v>
       </c>
-      <c r="G40">
+      <c r="K40">
         <v>27</v>
       </c>
-      <c r="H40">
+      <c r="L40">
         <v>1.1926000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>29</v>
       </c>
@@ -3866,25 +4346,37 @@
         <v>1.0568</v>
       </c>
       <c r="C41">
+        <v>29</v>
+      </c>
+      <c r="D41">
+        <v>1.0568</v>
+      </c>
+      <c r="E41">
+        <v>29</v>
+      </c>
+      <c r="F41">
+        <v>1.0568</v>
+      </c>
+      <c r="G41">
         <v>26</v>
       </c>
-      <c r="D41">
+      <c r="H41">
         <v>1.1446000000000001</v>
       </c>
-      <c r="E41">
+      <c r="I41">
         <v>28</v>
       </c>
-      <c r="F41">
+      <c r="J41">
         <v>1.204</v>
       </c>
-      <c r="G41">
+      <c r="K41">
         <v>28</v>
       </c>
-      <c r="H41">
+      <c r="L41">
         <v>1.2125999999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>30</v>
       </c>
@@ -3892,25 +4384,37 @@
         <v>1.0841000000000001</v>
       </c>
       <c r="C42">
+        <v>30</v>
+      </c>
+      <c r="D42">
+        <v>1.0841000000000001</v>
+      </c>
+      <c r="E42">
+        <v>30</v>
+      </c>
+      <c r="F42">
+        <v>1.0841000000000001</v>
+      </c>
+      <c r="G42">
         <v>27</v>
       </c>
-      <c r="D42">
+      <c r="H42">
         <v>1.1706000000000001</v>
       </c>
-      <c r="E42">
+      <c r="I42">
         <v>29</v>
       </c>
-      <c r="F42">
+      <c r="J42">
         <v>1.2282</v>
       </c>
-      <c r="G42">
+      <c r="K42">
         <v>29</v>
       </c>
-      <c r="H42">
+      <c r="L42">
         <v>1.2358</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>31</v>
       </c>
@@ -3918,25 +4422,37 @@
         <v>1.1002000000000001</v>
       </c>
       <c r="C43">
+        <v>31</v>
+      </c>
+      <c r="D43">
+        <v>1.1002000000000001</v>
+      </c>
+      <c r="E43">
+        <v>31</v>
+      </c>
+      <c r="F43">
+        <v>1.1002000000000001</v>
+      </c>
+      <c r="G43">
         <v>28</v>
       </c>
-      <c r="D43">
+      <c r="H43">
         <v>1.1990000000000001</v>
       </c>
-      <c r="E43">
+      <c r="I43">
         <v>30</v>
       </c>
-      <c r="F43">
+      <c r="J43">
         <v>1.2545999999999999</v>
       </c>
-      <c r="G43">
+      <c r="K43">
         <v>30</v>
       </c>
-      <c r="H43">
+      <c r="L43">
         <v>1.2615000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>32</v>
       </c>
@@ -3944,25 +4460,37 @@
         <v>1.1198999999999999</v>
       </c>
       <c r="C44">
+        <v>32</v>
+      </c>
+      <c r="D44">
+        <v>1.1198999999999999</v>
+      </c>
+      <c r="E44">
+        <v>32</v>
+      </c>
+      <c r="F44">
+        <v>1.1198999999999999</v>
+      </c>
+      <c r="G44">
         <v>29</v>
       </c>
-      <c r="D44">
+      <c r="H44">
         <v>1.2186999999999999</v>
       </c>
-      <c r="E44">
+      <c r="I44">
         <v>31</v>
       </c>
-      <c r="F44">
+      <c r="J44">
         <v>1.2726999999999999</v>
       </c>
-      <c r="G44">
+      <c r="K44">
         <v>31</v>
       </c>
-      <c r="H44">
+      <c r="L44">
         <v>1.2818000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>33</v>
       </c>
@@ -3970,25 +4498,37 @@
         <v>1.139</v>
       </c>
       <c r="C45">
+        <v>33</v>
+      </c>
+      <c r="D45">
+        <v>1.139</v>
+      </c>
+      <c r="E45">
+        <v>33</v>
+      </c>
+      <c r="F45">
+        <v>1.139</v>
+      </c>
+      <c r="G45">
         <v>30</v>
       </c>
-      <c r="D45">
+      <c r="H45">
         <v>1.2441</v>
       </c>
-      <c r="E45">
+      <c r="I45">
         <v>32</v>
       </c>
-      <c r="F45">
+      <c r="J45">
         <v>1.2974000000000001</v>
       </c>
-      <c r="G45">
+      <c r="K45">
         <v>32</v>
       </c>
-      <c r="H45">
+      <c r="L45">
         <v>1.2977000000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>34</v>
       </c>
@@ -3996,25 +4536,37 @@
         <v>1.1604000000000001</v>
       </c>
       <c r="C46">
+        <v>34</v>
+      </c>
+      <c r="D46">
+        <v>1.1604000000000001</v>
+      </c>
+      <c r="E46">
+        <v>34</v>
+      </c>
+      <c r="F46">
+        <v>1.1604000000000001</v>
+      </c>
+      <c r="G46">
         <v>31</v>
       </c>
-      <c r="D46">
+      <c r="H46">
         <v>1.2701</v>
       </c>
-      <c r="E46">
+      <c r="I46">
         <v>33</v>
       </c>
-      <c r="F46">
+      <c r="J46">
         <v>1.3140000000000001</v>
       </c>
-      <c r="G46">
+      <c r="K46">
         <v>33</v>
       </c>
-      <c r="H46">
+      <c r="L46">
         <v>1.3150999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>35</v>
       </c>
@@ -4022,25 +4574,37 @@
         <v>1.177</v>
       </c>
       <c r="C47">
+        <v>35</v>
+      </c>
+      <c r="D47">
+        <v>1.177</v>
+      </c>
+      <c r="E47">
+        <v>35</v>
+      </c>
+      <c r="F47">
+        <v>1.177</v>
+      </c>
+      <c r="G47">
         <v>32</v>
       </c>
-      <c r="D47">
+      <c r="H47">
         <v>1.2869999999999999</v>
       </c>
-      <c r="E47">
+      <c r="I47">
         <v>34</v>
       </c>
-      <c r="F47">
+      <c r="J47">
         <v>1.3288</v>
       </c>
-      <c r="G47">
+      <c r="K47">
         <v>34</v>
       </c>
-      <c r="H47">
+      <c r="L47">
         <v>1.3317000000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>36</v>
       </c>
@@ -4048,25 +4612,37 @@
         <v>1.1886000000000001</v>
       </c>
       <c r="C48">
+        <v>36</v>
+      </c>
+      <c r="D48">
+        <v>1.1886000000000001</v>
+      </c>
+      <c r="E48">
+        <v>36</v>
+      </c>
+      <c r="F48">
+        <v>1.1886000000000001</v>
+      </c>
+      <c r="G48">
         <v>33</v>
       </c>
-      <c r="D48">
+      <c r="H48">
         <v>1.3107</v>
       </c>
-      <c r="E48">
+      <c r="I48">
         <v>35</v>
       </c>
-      <c r="F48">
+      <c r="J48">
         <v>1.3455999999999999</v>
       </c>
-      <c r="G48">
+      <c r="K48">
         <v>35</v>
       </c>
-      <c r="H48">
+      <c r="L48">
         <v>1.3483000000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>37</v>
       </c>
@@ -4074,25 +4650,37 @@
         <v>1.2002999999999999</v>
       </c>
       <c r="C49">
+        <v>37</v>
+      </c>
+      <c r="D49">
+        <v>1.2002999999999999</v>
+      </c>
+      <c r="E49">
+        <v>37</v>
+      </c>
+      <c r="F49">
+        <v>1.2002999999999999</v>
+      </c>
+      <c r="G49">
         <v>34</v>
       </c>
-      <c r="D49">
+      <c r="H49">
         <v>1.327</v>
       </c>
-      <c r="E49">
+      <c r="I49">
         <v>36</v>
       </c>
-      <c r="F49">
+      <c r="J49">
         <v>1.3606</v>
       </c>
-      <c r="G49">
+      <c r="K49">
         <v>36</v>
       </c>
-      <c r="H49">
+      <c r="L49">
         <v>1.3637999999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>38</v>
       </c>
@@ -4100,25 +4688,37 @@
         <v>1.2103999999999999</v>
       </c>
       <c r="C50">
+        <v>38</v>
+      </c>
+      <c r="D50">
+        <v>1.2103999999999999</v>
+      </c>
+      <c r="E50">
+        <v>38</v>
+      </c>
+      <c r="F50">
+        <v>1.2103999999999999</v>
+      </c>
+      <c r="G50">
         <v>35</v>
       </c>
-      <c r="D50">
+      <c r="H50">
         <v>1.3434999999999999</v>
       </c>
-      <c r="E50">
+      <c r="I50">
         <v>37</v>
       </c>
-      <c r="F50">
+      <c r="J50">
         <v>1.3754999999999999</v>
       </c>
-      <c r="G50">
+      <c r="K50">
         <v>37</v>
       </c>
-      <c r="H50">
+      <c r="L50">
         <v>1.3788</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>39</v>
       </c>
@@ -4126,13 +4726,26 @@
         <v>1.2209000000000001</v>
       </c>
       <c r="C51">
+        <v>39</v>
+      </c>
+      <c r="D51">
+        <v>1.2209000000000001</v>
+      </c>
+      <c r="E51">
+        <v>39</v>
+      </c>
+      <c r="F51">
+        <v>1.2209000000000001</v>
+      </c>
+      <c r="G51">
         <v>36</v>
       </c>
-      <c r="D51">
+      <c r="H51">
         <v>1.3567</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>